--- a/data/hotels_by_city/Houston/Houston_shard_64.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_64.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="677">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55879-d1139704-Reviews-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-Candlewood-Suites-Galveston.h1988040.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1995 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r591883304-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>55879</t>
+  </si>
+  <si>
+    <t>1139704</t>
+  </si>
+  <si>
+    <t>591883304</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Never again!</t>
+  </si>
+  <si>
+    <t>I should have known once I smelled the overwhelming stench of RAID I should have requested a refund. The first room we were in had an annoying beeping sound every 5 minutes and management could not figure out where it was coming from so he moved up across the hall. Thankful for that or so I thought.. Once we opened the curtains there was a landfill as our view. Dreadful if you can imagine it. Next I pulled back the covers to check for bed bugs and cleanliness and low and behold it looked as though the bedding hadn’t been changed from the previous guest! Totally frustrated and tired from the drive I requested the bedding be changed and they stated the maid had left for the day. So you’re expecting me to sleep on a strangers body fluids because your maid half-assed her job? For $207.48 I expected a $207.48 experience instead of a pay-by-the-hour. Avoid staying here no matter the convenience of the location to Schlitterbahn! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I should have known once I smelled the overwhelming stench of RAID I should have requested a refund. The first room we were in had an annoying beeping sound every 5 minutes and management could not figure out where it was coming from so he moved up across the hall. Thankful for that or so I thought.. Once we opened the curtains there was a landfill as our view. Dreadful if you can imagine it. Next I pulled back the covers to check for bed bugs and cleanliness and low and behold it looked as though the bedding hadn’t been changed from the previous guest! Totally frustrated and tired from the drive I requested the bedding be changed and they stated the maid had left for the day. So you’re expecting me to sleep on a strangers body fluids because your maid half-assed her job? For $207.48 I expected a $207.48 experience instead of a pay-by-the-hour. Avoid staying here no matter the convenience of the location to Schlitterbahn! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r585330202-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>585330202</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Nice value, good hotel but poor location.</t>
+  </si>
+  <si>
+    <t>This is a good, comfortable hotel for the money, but there is an unfortunate junkyard next door.  Friendly staff.  Internet did not work and they wanted ME to call IT, when I felt that is their job. No breakfast here either, but the room quality is quite good.One glaring issue was the worn out sheets on the bed with annoying little balls.  Please...buy new sheets and fix your internet!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r583967358-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>583967358</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable and Friendly </t>
+  </si>
+  <si>
+    <t>My daughter and I came to get a break From all the tests I went through at MD Anderson in Houston! EVERYONE was VERY nice and helpful! Especially Anna!She was AWESOME! She told us about The places the locals go to. The FREEBeach saved us a lot of $ and there were only a few people there!! The roomWas just what we needed. It was VERY COMFORTABLE and good having a big fridge and 1/2 kitchen with popcorn.We REALLY liked that you could check out Movies and games! They only downside was a view of a garbage or junk yard and no breakfast. The price was reasonable For the area and we would come backTo this comfortable and friendly hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>My daughter and I came to get a break From all the tests I went through at MD Anderson in Houston! EVERYONE was VERY nice and helpful! Especially Anna!She was AWESOME! She told us about The places the locals go to. The FREEBeach saved us a lot of $ and there were only a few people there!! The roomWas just what we needed. It was VERY COMFORTABLE and good having a big fridge and 1/2 kitchen with popcorn.We REALLY liked that you could check out Movies and games! They only downside was a view of a garbage or junk yard and no breakfast. The price was reasonable For the area and we would come backTo this comfortable and friendly hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r565355241-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>565355241</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Nice place to stay for cruising</t>
+  </si>
+  <si>
+    <t>Easy access,easy to get to cruiseport. Friendly staff, Good rooms. Lots of TV channels, pool with hot tub. No breakfast is a downer, but shopping center next door is great for forgotten items. Free bag of popcorn in room is nice touch.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Akbar Ali M, General Manager at Candlewood Suites Galveston, responded to this reviewResponded March 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2018</t>
+  </si>
+  <si>
+    <t>Easy access,easy to get to cruiseport. Friendly staff, Good rooms. Lots of TV channels, pool with hot tub. No breakfast is a downer, but shopping center next door is great for forgotten items. Free bag of popcorn in room is nice touch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r562518374-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>562518374</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>Easy access to Interstate, close to the seawall, good location, kitchenette was nice, laundry room good and free.  Front desk clerk was very knowledgeable about the area and things to do with family. Quiet rooms on the south side.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Akbar Ali M, General Manager at Candlewood Suites Galveston, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Easy access to Interstate, close to the seawall, good location, kitchenette was nice, laundry room good and free.  Front desk clerk was very knowledgeable about the area and things to do with family. Quiet rooms on the south side.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r552224929-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>552224929</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Weekend trip</t>
+  </si>
+  <si>
+    <t>We stayed there at the Candlewood back in early January nice place very good amount of Cheese close to Malt multiple things here in Galveston little pricey for some people it's what you you pay for what you getMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Akbar Ali M, Manager at Candlewood Suites Galveston, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>We stayed there at the Candlewood back in early January nice place very good amount of Cheese close to Malt multiple things here in Galveston little pricey for some people it's what you you pay for what you getMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r518851118-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>518851118</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>My familys hero</t>
+  </si>
+  <si>
+    <t>There are a lot of unsung heroes in the Galveston Houston area right now. My family has one at Candlewood in Galveston his name is Ali. My sister is trapped in Galveston alone-due to flooding. She attempted to leave Ali is the manager and when she went to check out he told her he was concerned for her safety and that he was not comfortable with her leaving that her life was more important than getting home. He was right- by the time she would have reached part of the route we had chosen the damn had been opened and the area flooded. She is alone but my family and I know he will keep her and everyone there safe. I can not express how grateful we are. Thank you so very much.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Akbar Ali M, Manager at Candlewood Suites Galveston, responded to this reviewResponded September 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2017</t>
+  </si>
+  <si>
+    <t>There are a lot of unsung heroes in the Galveston Houston area right now. My family has one at Candlewood in Galveston his name is Ali. My sister is trapped in Galveston alone-due to flooding. She attempted to leave Ali is the manager and when she went to check out he told her he was concerned for her safety and that he was not comfortable with her leaving that her life was more important than getting home. He was right- by the time she would have reached part of the route we had chosen the damn had been opened and the area flooded. She is alone but my family and I know he will keep her and everyone there safe. I can not express how grateful we are. Thank you so very much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r505839112-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>505839112</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Super sweet and friendly!</t>
+  </si>
+  <si>
+    <t>The manager of this hotel made us feel like we were home after a horrible experience in a Galveston rental. He was so accommodating and friendly that we felt safe and welcomed. We had 3 great nights here and would definitely come again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Akbar Ali M, Manager at Candlewood Suites Galveston, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>The manager of this hotel made us feel like we were home after a horrible experience in a Galveston rental. He was so accommodating and friendly that we felt safe and welcomed. We had 3 great nights here and would definitely come again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r499523456-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>499523456</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Super Service</t>
+  </si>
+  <si>
+    <t>We stayed Saturday night at Candlewood Suites before cruising on Sunday. The hotel was clean and the service excellent. We slept well and left for the ship. We had boarded when I realized I had left my medication in the refrigerator. I called the front desk and the sweet girl assured me she had it and would keep it until we came back from our cruise. I picked it up Sunday. I'm sorry I didn't get her name, but I can't thank her enough.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r478079810-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>478079810</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A good place for a weekend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay here the last week and I have to say that it is a good place to stay; they have  good service, it is close to the beach and most of the attraction in Galveston, but what I liked the most was that it's pet friendly. I probably come back in my next visit to Galveston. </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r477095177-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>477095177</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>Even though this was my third Spring in a row to come down to the Galveston area to photograph birds during Spring migration, this was my first time to have stayed at the Candlewood Suites. As a photographer I am usually out of the hotel an hour before sunrise and don't return to the hotel until after sunset. My suite had a convenient kitchen which allowed me to prepare my own breakfast and dinner. A full size refrigerator allowed me to keep all of my groceries fresh. Free washer and dryers for clothing were a nice surprise. The front desk staff were all polite and quite helpful.  It was raining on the day of my departure and they offered me an umbrella while I packed my car. I will definitely be staying at the Candlewood Suites on all my future visits to Galveston.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Even though this was my third Spring in a row to come down to the Galveston area to photograph birds during Spring migration, this was my first time to have stayed at the Candlewood Suites. As a photographer I am usually out of the hotel an hour before sunrise and don't return to the hotel until after sunset. My suite had a convenient kitchen which allowed me to prepare my own breakfast and dinner. A full size refrigerator allowed me to keep all of my groceries fresh. Free washer and dryers for clothing were a nice surprise. The front desk staff were all polite and quite helpful.  It was raining on the day of my departure and they offered me an umbrella while I packed my car. I will definitely be staying at the Candlewood Suites on all my future visits to Galveston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r456328160-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>456328160</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>Perfect Pre-cruise Stay</t>
+  </si>
+  <si>
+    <t>We booked this hotel for two nights pre-cruise with several of our friends. They have an awesome staff and clean rooms with comfortable beds. We would definitely stay here again the next time we're in Galveston.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r449664839-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>449664839</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>Pros and cons.</t>
+  </si>
+  <si>
+    <t>I was in a trip to galveston, because my wife and i were on our honeymoon. We decided to celebrate that, with a nice cruise, but we had an inconvenience because we traveled about 8 september 2016, and there was a kind of a celebration in the port, so every room in any hotel, even some... cheap places were over 300 dll a night, and we didnt had a reservation.
+We decided to go away of the port looking for some more affordable place, since we were staying there just for a few hours to rest from a 18 hour trip in the highway. 
+Found this place by accident, but on the outside, it seemed a decent place. 
+The owner was in the reception, and offered us a room, really was a good deal, we spent like 80 dll, the place was clean, showers had hot water, it even had a little refrigerator, a tv and a comfy bed. 
+If you ask me, is it worth to travel 10 miles away from the port, and staying away from the beach to save some money, i would say yes. The water of the sea in the port, its brownish / dark, a little smelly and short, so be in a hotel near of the beach (unless you have children or love to go into not clean looking water) is not a big deal. 
+In this place we had something to eat...I was in a trip to galveston, because my wife and i were on our honeymoon. We decided to celebrate that, with a nice cruise, but we had an inconvenience because we traveled about 8 september 2016, and there was a kind of a celebration in the port, so every room in any hotel, even some... cheap places were over 300 dll a night, and we didnt had a reservation.We decided to go away of the port looking for some more affordable place, since we were staying there just for a few hours to rest from a 18 hour trip in the highway. Found this place by accident, but on the outside, it seemed a decent place. The owner was in the reception, and offered us a room, really was a good deal, we spent like 80 dll, the place was clean, showers had hot water, it even had a little refrigerator, a tv and a comfy bed. If you ask me, is it worth to travel 10 miles away from the port, and staying away from the beach to save some money, i would say yes. The water of the sea in the port, its brownish / dark, a little smelly and short, so be in a hotel near of the beach (unless you have children or love to go into not clean looking water) is not a big deal. In this place we had something to eat near, and take only 5 to 10 minutes to reach our destiny.I would definitively stay again in this place, but i have to say it, dont expect high class commodities or spas or luxury things. But if you only have to rest, this is the place!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I was in a trip to galveston, because my wife and i were on our honeymoon. We decided to celebrate that, with a nice cruise, but we had an inconvenience because we traveled about 8 september 2016, and there was a kind of a celebration in the port, so every room in any hotel, even some... cheap places were over 300 dll a night, and we didnt had a reservation.
+We decided to go away of the port looking for some more affordable place, since we were staying there just for a few hours to rest from a 18 hour trip in the highway. 
+Found this place by accident, but on the outside, it seemed a decent place. 
+The owner was in the reception, and offered us a room, really was a good deal, we spent like 80 dll, the place was clean, showers had hot water, it even had a little refrigerator, a tv and a comfy bed. 
+If you ask me, is it worth to travel 10 miles away from the port, and staying away from the beach to save some money, i would say yes. The water of the sea in the port, its brownish / dark, a little smelly and short, so be in a hotel near of the beach (unless you have children or love to go into not clean looking water) is not a big deal. 
+In this place we had something to eat...I was in a trip to galveston, because my wife and i were on our honeymoon. We decided to celebrate that, with a nice cruise, but we had an inconvenience because we traveled about 8 september 2016, and there was a kind of a celebration in the port, so every room in any hotel, even some... cheap places were over 300 dll a night, and we didnt had a reservation.We decided to go away of the port looking for some more affordable place, since we were staying there just for a few hours to rest from a 18 hour trip in the highway. Found this place by accident, but on the outside, it seemed a decent place. The owner was in the reception, and offered us a room, really was a good deal, we spent like 80 dll, the place was clean, showers had hot water, it even had a little refrigerator, a tv and a comfy bed. If you ask me, is it worth to travel 10 miles away from the port, and staying away from the beach to save some money, i would say yes. The water of the sea in the port, its brownish / dark, a little smelly and short, so be in a hotel near of the beach (unless you have children or love to go into not clean looking water) is not a big deal. In this place we had something to eat near, and take only 5 to 10 minutes to reach our destiny.I would definitively stay again in this place, but i have to say it, dont expect high class commodities or spas or luxury things. But if you only have to rest, this is the place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r447830479-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>447830479</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>Not a bad hotel.</t>
+  </si>
+  <si>
+    <t>Was there two weeks for work. Nice room, NO problems out of management. Not by the beach but does have a pool. Only a 5-10 minute drive to the beach. They were upgrading and painting. Didnt see any bugs or roaches. Little store there, didnt have much in it at first but was stocked later in the week. They change your linen once a week but if you expect them to change it every day you need to spend money for that type of service somewhere else. Its mainly an extended stay type place, mainly for worker and family type people.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r442924705-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>442924705</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>Good staff, fenced property</t>
+  </si>
+  <si>
+    <t>The staff was very friendly at check in and check out, but upon arriving at the hotel, the first thing you notice is the high security fence. It felt like pulling into a prison parking lot. The lobby was pretty messy and the rooms were not very sound-proofed.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Galveston, responded to this reviewResponded December 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2016</t>
+  </si>
+  <si>
+    <t>The staff was very friendly at check in and check out, but upon arriving at the hotel, the first thing you notice is the high security fence. It felt like pulling into a prison parking lot. The lobby was pretty messy and the rooms were not very sound-proofed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r430461777-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>430461777</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Great! Until the cockroach...</t>
+  </si>
+  <si>
+    <t>Loved our hotel room. Stayed for 3 days, 2 nights. big bathroom and big room, nice tv and full size fridge, but I guess it was too good to be true... on night 2, we saw a GIANT cockroach scurrying along the wall at night with the lights on (which makes me wonder where the other ones are) I don't know if this is normal for Galveston hotels but I am seriously freaked out. I don't know if I should talk to someone or not, but that's the only reason for 2 stars... otherwise very good. Very friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Galveston, responded to this reviewResponded November 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2016</t>
+  </si>
+  <si>
+    <t>Loved our hotel room. Stayed for 3 days, 2 nights. big bathroom and big room, nice tv and full size fridge, but I guess it was too good to be true... on night 2, we saw a GIANT cockroach scurrying along the wall at night with the lights on (which makes me wonder where the other ones are) I don't know if this is normal for Galveston hotels but I am seriously freaked out. I don't know if I should talk to someone or not, but that's the only reason for 2 stars... otherwise very good. Very friendly staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r425424677-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>425424677</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>Good Rooms, Great Staff</t>
+  </si>
+  <si>
+    <t>Rooms were clean, comfortable with full kitchen and stocked with essentials for an extended stay. The suite we were in had a separate bedroom from the living area making it quite spacious. The facility was older, but reasonably well maintained.  The staff was friendly and unusually helpful.  The price was low for the Galveston area and as such, I felt that the overall value was excellent.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r425168351-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>425168351</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Wedding weekend</t>
+  </si>
+  <si>
+    <t>We absolutely enjoyed our stay at this hotel, Ali the manager and his staff were super friendly and very helpful through the process. Rooms were clean and kitchen was stocked with items that made life very easy for us with the large wedding party we were entertaining. Can't say enough about the kindness we were shown while we stayed there, will definitely stay again and recommend it!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r401413720-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>401413720</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Summer Trip</t>
+  </si>
+  <si>
+    <t>Although the hotel is not on the beach, it is a great location and easily accessible.  We had two rooms and the staff put us close together for easy access.  Full size fridge, microwave, stovetop and a dishwasher!  Target close by for last minute items.  The hotel staff were very nice and accommodating.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r396969889-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>396969889</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Nasty beyond imagination</t>
+  </si>
+  <si>
+    <t>A group from work booked this hotel for a training class in Galveston. I did not know that places this nasty even existed. We stayed one night and everyone in our group had roaches in their rooms. The view from the rooms is literally a dump out back. My wife and I had port a cans out our window. The entire hotel stunk so bad that we bought air freshener just to enter the room. My co worker showed the manager pics and video of live and dead roaches. The manager said "haven't you ever seen water bugs?" Ridiculous and totally unsanitary. This place needs to be shut down. No way that it is legal to run a place like this. Folks were openly smoking weed out front! Needles to say, we checked out and booked rooms at the Galvez.....stay far away from this place. The trainers at our facility laughed at us for booking rooms there! This place is known in the island for being a dump! MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Galveston, responded to this reviewResponded August 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2016</t>
+  </si>
+  <si>
+    <t>A group from work booked this hotel for a training class in Galveston. I did not know that places this nasty even existed. We stayed one night and everyone in our group had roaches in their rooms. The view from the rooms is literally a dump out back. My wife and I had port a cans out our window. The entire hotel stunk so bad that we bought air freshener just to enter the room. My co worker showed the manager pics and video of live and dead roaches. The manager said "haven't you ever seen water bugs?" Ridiculous and totally unsanitary. This place needs to be shut down. No way that it is legal to run a place like this. Folks were openly smoking weed out front! Needles to say, we checked out and booked rooms at the Galvez.....stay far away from this place. The trainers at our facility laughed at us for booking rooms there! This place is known in the island for being a dump! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r395655998-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>395655998</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a great place to stay and at a great price. Everyone was very friendly and helpful.  The gentleman at the front desk was exceptionally friendly, and the girls that worked at night were very helpful also.  Clean and comfortable rooms.  Pool is very nice and clean.  It's very easy to find.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r393260336-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>393260336</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Ever thing was clean, low noise ,the staff was great they would talk to you know your name and give great advice on where to eat and what to do pool was nice well lit parking lot gym was cleanThe TV was flat screen and direct TV on it so know where channel was on it was nice I would tell anyone to stay hereIf your like us and have a kid that done not always like to eat alot at meals. The full size refrigerator and microwave is great can keep thing in the room .and they have a place to get food on site and there a target right across the road Great place to stay  u feel like your at home and not cramped in small roomMoreShow less</t>
+  </si>
+  <si>
+    <t>Ever thing was clean, low noise ,the staff was great they would talk to you know your name and give great advice on where to eat and what to do pool was nice well lit parking lot gym was cleanThe TV was flat screen and direct TV on it so know where channel was on it was nice I would tell anyone to stay hereIf your like us and have a kid that done not always like to eat alot at meals. The full size refrigerator and microwave is great can keep thing in the room .and they have a place to get food on site and there a target right across the road Great place to stay  u feel like your at home and not cramped in small roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r387751348-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>387751348</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>The location was great for waiting on the cruise ship.  It was easy access and the staff and manager was a great help.  Check in was only a matter of minutes and the rooms had just been remolded.  They were so helpful and polite.  The rooms were clean and nicely decorated.  A great place to stay</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r373423923-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>373423923</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Best Hotel in Galveston</t>
+  </si>
+  <si>
+    <t>This is my second stay here, I will never stay anywhere else in Galveston again. The staff is very friendly and the rooms are always clean. The pool and hot tub area is really nice too. Great prices for the rooms. Great AC in the rooms.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r368783817-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>368783817</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>I stayed at the Candlewood Suites in Galveston Texas and it was the best experience at a hotel I have ever had</t>
+  </si>
+  <si>
+    <t>I stayed at the candlewood suites and the service is amazing the day II got there they help me out with getting my stuff to my room. the rooms were fantastic and nothing was broke and or mest up 5/5 in my book I actualy recommend it to people now. another great part is that they allow all dogs under 90 pounds (as long as the dogs are friendly thogh and you can have 2 dogs as well. so I recommend it :)</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r359403918-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>359403918</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Great experience for a one night stay</t>
+  </si>
+  <si>
+    <t>Clean, Convenient and Comfortable.  Check in was a breeze.  We only stayed overnight for a cruise the next day.  Location was easy off the highway and great for the cruise the next day.  Not too busy.  I did notice quite a few people working from the hotel that had been there a few months.  Full service kitchen in room so no breakfast.  Will stay overnight again.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r357449980-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>357449980</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>2016 Spring Break</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel, suite room was clean with a refrigerator.  Ali at the front desk took great care of us and was very nice.  The refrigerator is an ice maker.  The hot tub was great and the pool area was very clean. Used our IHG points for the room without issue. Would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r342228878-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>342228878</t>
+  </si>
+  <si>
+    <t>01/23/2016</t>
+  </si>
+  <si>
+    <t>Good place to explore Galveston from</t>
+  </si>
+  <si>
+    <t>Friendly welcome when we arrived.  Beds are comfy. Good tv and internet.  Easy to find from highway.  Pool was too cool to swim in. Big bathroom and nice shower. There was a nice table and reclining chair as well. Nice cooktop and large fridge. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Galveston, responded to this reviewResponded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Friendly welcome when we arrived.  Beds are comfy. Good tv and internet.  Easy to find from highway.  Pool was too cool to swim in. Big bathroom and nice shower. There was a nice table and reclining chair as well. Nice cooktop and large fridge. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r336809308-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>336809308</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>Family friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice and clean hotel. Management and staff very friendly. Definitely will stay here again.  Rooms have kitchen with full size fridge also has small appliances if need be. Very impressed. Easy to find off of freeway next to Target. If cruising you can park auto here while you cruise. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r335544309-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>335544309</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>Clean, friendly place</t>
+  </si>
+  <si>
+    <t>While not on the beach, this is an economical place to stay in Galveston, and the staff is great. Usual Candlewood amenities and experience. Definitely recommend as a place to stay in Galveston. This was a winter business trip so was not looking for the beach experience, just a comfortable spot for the night. Fit the bill perfectly!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r319556420-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>319556420</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>4 day stay in Galveston</t>
+  </si>
+  <si>
+    <t>We were visiting relatives in Houston from the UK in late September and decided to pay Galveston a visit, probably influenced by Glen Campbell! Despite the 35c temperature apparently summer was over so the Island seemed quite quiet but a relaxing spell was what we needed after Houston.The Candlewood suites fitted the bill perfectly. From checkin to departure everything was first class We were greeted by Mr. Mukhida, a nicer chap you couldn't meet, and over the course of our stay we found him invaluable for local information and assistance.The suite itself was great- equipped with everything you could want, toaster, kettle, microwave etc.we even stayed in and cooked for ourselves one night- a rare occasion.Our view was of the recycling plant, similar to a previous reviewer but we did not find this to be a problem, entertaining in fact!We made full use of the hotel facilities, the 24 hr coffee in the pantry beside reception was a great bonus, including the pool ( because it was quiet we had the pool to ourselves) and  laundry. The gym looked well equipped but we were here to relax!So thanks very much to Akbar Ali and the rest of the staff who made our stay seem very special.PS a special thanks from my wife to Akbar Ali for the burn ointment you provided at a moments notice after she had burnt herself.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>We were visiting relatives in Houston from the UK in late September and decided to pay Galveston a visit, probably influenced by Glen Campbell! Despite the 35c temperature apparently summer was over so the Island seemed quite quiet but a relaxing spell was what we needed after Houston.The Candlewood suites fitted the bill perfectly. From checkin to departure everything was first class We were greeted by Mr. Mukhida, a nicer chap you couldn't meet, and over the course of our stay we found him invaluable for local information and assistance.The suite itself was great- equipped with everything you could want, toaster, kettle, microwave etc.we even stayed in and cooked for ourselves one night- a rare occasion.Our view was of the recycling plant, similar to a previous reviewer but we did not find this to be a problem, entertaining in fact!We made full use of the hotel facilities, the 24 hr coffee in the pantry beside reception was a great bonus, including the pool ( because it was quiet we had the pool to ourselves) and  laundry. The gym looked well equipped but we were here to relax!So thanks very much to Akbar Ali and the rest of the staff who made our stay seem very special.PS a special thanks from my wife to Akbar Ali for the burn ointment you provided at a moments notice after she had burnt herself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r316435382-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>316435382</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Peaceful</t>
+  </si>
+  <si>
+    <t>Even though I am a former resident of the island, this was my first time staying at a hotel while there.  This was the most peaceful stay i have ever had.  The staff was super nice, and even though we were by the freeway, we heard nothing. The rooms were very clean and stocked with everything we needed.  So it is safe to say that we will be staying here again on our next visit.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r314477953-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>314477953</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Nice for the money</t>
+  </si>
+  <si>
+    <t>Very nice room. Has a full kitchen, a large closet and the most friendly staff ever. We stayed before leaving on a cruise and the front desk girl on night shift was wonderful. Gave us easy directions and even explained how to get around Galveston. I will come back for sure!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r306329953-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>306329953</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>Not a good value</t>
+  </si>
+  <si>
+    <t>Stayed there for 1 night prior to a cruise and it is a good location for that.  We had a room at the back of the hotel and the view was of some type of recycling center with standing water behind our window. The person that checked us in was very friendly.  They food pantry was out of bottled water at 5:00 on a Saturday afternoon and the girl behind the desk seemed unconcerned when I ask about it. We would not stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>glscw, Manager at Candlewood Suites Galveston, responded to this reviewResponded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Stayed there for 1 night prior to a cruise and it is a good location for that.  We had a room at the back of the hotel and the view was of some type of recycling center with standing water behind our window. The person that checked us in was very friendly.  They food pantry was out of bottled water at 5:00 on a Saturday afternoon and the girl behind the desk seemed unconcerned when I ask about it. We would not stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r288362062-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>288362062</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Pretty good</t>
+  </si>
+  <si>
+    <t>We stayed here for two days, they have no problem with other family members coming in and out that don't have a hotel room with them. Since  the first day we had issues with the remote control, and we had them come three or four times to our room and check it out, next thing it worked and when 5 mins passed it didn't want to work anymore.. At the last night we stayed we noticed "waterbugs", cockroaches, in our room and we decided to just stop with the tv and leave it on CNN. Also they don't check on your room daily or even ask if your towels are ok.. I guess since the washer and dryers are free you can wash them and dry them. Plus pay for deodorant and fabric softener. Other than these three problems everything else was pretty good.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for two days, they have no problem with other family members coming in and out that don't have a hotel room with them. Since  the first day we had issues with the remote control, and we had them come three or four times to our room and check it out, next thing it worked and when 5 mins passed it didn't want to work anymore.. At the last night we stayed we noticed "waterbugs", cockroaches, in our room and we decided to just stop with the tv and leave it on CNN. Also they don't check on your room daily or even ask if your towels are ok.. I guess since the washer and dryers are free you can wash them and dry them. Plus pay for deodorant and fabric softener. Other than these three problems everything else was pretty good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r288175060-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>288175060</t>
+  </si>
+  <si>
+    <t>Very nice hotel to stay in Galveston just minutes from the beach</t>
+  </si>
+  <si>
+    <t>This was a one night stay over and we used our IHG member points to pay for the room. We were walking nicely by the manager we were recognized as IHG members and given a welcome bag + 300 points. Side note they will ask you which would you like to pay for the flight and the best thing to do is go I'd like both and I'll give them to you. There is no breakfast at this hotel. The room was very clean and comfortable it had a small kitchen in it which was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Galveston, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>This was a one night stay over and we used our IHG member points to pay for the room. We were walking nicely by the manager we were recognized as IHG members and given a welcome bag + 300 points. Side note they will ask you which would you like to pay for the flight and the best thing to do is go I'd like both and I'll give them to you. There is no breakfast at this hotel. The room was very clean and comfortable it had a small kitchen in it which was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r283991479-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>283991479</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Great place and conviently located for traffic and shopping</t>
+  </si>
+  <si>
+    <t>Staff here is friendly and helpful. It has a kitchenette and with the target across the street it was easy to stock. Clean and reasonable. Easy access to the highway and direct route to the beach and other stores and restaurants.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r282917644-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>282917644</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Very clean!</t>
+  </si>
+  <si>
+    <t>This hotel is FANTASTIC!  I loved this hotel and plan on coming back whenever I'm in Galveston. The management go above and beyond to make sure everything is perfect. Clean beds, no bugs, fresh coffee, great pool and hot tub. Everything in the room was up to date and working properly. They even have movies you can check out.  Great for families, singles or couples. Lots of fun things to do very close to the hotel. Schlitterbahn and Moody Gardens are only 5 minutes away. Short drive to the beach also.  They have the biggest laundry room I've seen in a hotel and it's FREE!  No hunting for quarters!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r281971274-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>281971274</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Roaches roaches roaches</t>
+  </si>
+  <si>
+    <t>Upon arrival in the evening everything looked ok on the outside. Rooms are $129 a night which seems affordable for Galveston during peak season. We had an "upgraded room" which consisted of a room with a queen bed and a separate kitchen/living room. The sofa bed when pulled out had half the springs broken so the mattress fell through at the top. There was trash under the bed along with the broken springs. We had to go get a blow up mattress for the kids. We encountered roaches running around the floor and walls (the little kind that indicate filth) upon the first night. The next day we went down stairs (we were on the2nd floor) and found roaches all along the elevator and running close to the doors to other rooms on the first floor. You could tell they were trying to kill them by the white powder everywhere and the dead ones scattered on the floor. Thank goodness we were leaving all day for Schlitterbahn. Our last day there we realized there is some kind of landfill or recycling center behind us so I figured that was why the roaches were running the hotel. NEVER AGAIN WILL I SLEEP HERE. I was utterly disgusted and appalled at the condition of the hotel and the roaches. No thanks. Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jessie H, Guest Relations Manager at Candlewood Suites Galveston, responded to this reviewResponded June 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2015</t>
+  </si>
+  <si>
+    <t>Upon arrival in the evening everything looked ok on the outside. Rooms are $129 a night which seems affordable for Galveston during peak season. We had an "upgraded room" which consisted of a room with a queen bed and a separate kitchen/living room. The sofa bed when pulled out had half the springs broken so the mattress fell through at the top. There was trash under the bed along with the broken springs. We had to go get a blow up mattress for the kids. We encountered roaches running around the floor and walls (the little kind that indicate filth) upon the first night. The next day we went down stairs (we were on the2nd floor) and found roaches all along the elevator and running close to the doors to other rooms on the first floor. You could tell they were trying to kill them by the white powder everywhere and the dead ones scattered on the floor. Thank goodness we were leaving all day for Schlitterbahn. Our last day there we realized there is some kind of landfill or recycling center behind us so I figured that was why the roaches were running the hotel. NEVER AGAIN WILL I SLEEP HERE. I was utterly disgusted and appalled at the condition of the hotel and the roaches. No thanks. Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r279620767-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>279620767</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Not a more family or pet friendly place in Galveston</t>
+  </si>
+  <si>
+    <t>Earned three nights free with my holiday inn points. This was only the beginning of the perks. We also had two dogs which should have cost $150 in pet fees which the hotel manager waived. They also gave us a free roll away for one of our kids. We also borrowed a toaster oven and BBQ utensils for the complimentary gas grill. The grill is huge and has 5 burners, more than enough space for any size family. There is also an outdoor pool and pet walking area for dogs to do their business. Free coffee 24/7 and an onsite convenience store that is reasonably priced items. We cooked cinnamon rolls in the toaster oven for breakfast and fresh fish on the gas grill. We also cooked hamburgers and Mac n cheese in the room on the electric range in our room. No need to buy expensive dinners at local restaurants when you can save some money cooking at the hotel. Save your money for ski doos, carnival rides or bicycle rentals. I couldn't say enough nice things about hotel and manager. Only downside is that it is not on or walking distance from the beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>Earned three nights free with my holiday inn points. This was only the beginning of the perks. We also had two dogs which should have cost $150 in pet fees which the hotel manager waived. They also gave us a free roll away for one of our kids. We also borrowed a toaster oven and BBQ utensils for the complimentary gas grill. The grill is huge and has 5 burners, more than enough space for any size family. There is also an outdoor pool and pet walking area for dogs to do their business. Free coffee 24/7 and an onsite convenience store that is reasonably priced items. We cooked cinnamon rolls in the toaster oven for breakfast and fresh fish on the gas grill. We also cooked hamburgers and Mac n cheese in the room on the electric range in our room. No need to buy expensive dinners at local restaurants when you can save some money cooking at the hotel. Save your money for ski doos, carnival rides or bicycle rentals. I couldn't say enough nice things about hotel and manager. Only downside is that it is not on or walking distance from the beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r269548789-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>269548789</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>Comfy and clean</t>
+  </si>
+  <si>
+    <t>Nice room away from noisy beach area. Clean and quaint with a kitchenette complete with dishes. All the amenities needed to have a relaxing night with firm comfy beds. The double or queen beds are small but we each had a bed so it was fine. Will definitely stay here again!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r268528598-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>268528598</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>A Real Bang For My Buck</t>
+  </si>
+  <si>
+    <t>I am a tough critic so for me to be pleased you know it had to be a pleasant stay. Starting from the beginning it was easy to find,  lots of FREE parking.  The staff was very friendly,  the rooms were clean and spacious.  I had 2 rooms that accommodated to 4 adults 2 teens and 4 kids. Nice showers bed was OK kitchen was well . equipped and if you needed something like a rice cooker,  a fryer, a crockpot, etc you could get it from downstairs no extra charge. Unlike other hotels with 10 channels they had direct TV with endless channels.  They Also Had Movies Downstairs You Could Checkout For No fee.  Staff was very friendly and helpful. This place is kid friendly and pet friendly. Now for my favorite part. The pool area very clean and nice. I liked it so much I did a photoshoot by the pool.There's also a grilling area that's covered with electric grills and seating.There's a coffee station downstairs too (free) the kids got hot chocolate and I got coffee every morning very nice.This place had more to offer than we could have ever imagined. We were very satisfied and will be staying here every time we come to Galveston.   MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I am a tough critic so for me to be pleased you know it had to be a pleasant stay. Starting from the beginning it was easy to find,  lots of FREE parking.  The staff was very friendly,  the rooms were clean and spacious.  I had 2 rooms that accommodated to 4 adults 2 teens and 4 kids. Nice showers bed was OK kitchen was well . equipped and if you needed something like a rice cooker,  a fryer, a crockpot, etc you could get it from downstairs no extra charge. Unlike other hotels with 10 channels they had direct TV with endless channels.  They Also Had Movies Downstairs You Could Checkout For No fee.  Staff was very friendly and helpful. This place is kid friendly and pet friendly. Now for my favorite part. The pool area very clean and nice. I liked it so much I did a photoshoot by the pool.There's also a grilling area that's covered with electric grills and seating.There's a coffee station downstairs too (free) the kids got hot chocolate and I got coffee every morning very nice.This place had more to offer than we could have ever imagined. We were very satisfied and will be staying here every time we come to Galveston.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r259539641-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>259539641</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>I am currently staying at the Candlewood while working on a project for work. They have been extremely accommodating to myself, my boyfriend, and my chihuahua Kilo. The room we are staying in is well stocked and clean. I would definitely stay Candlewood again! :)</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r259179723-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>259179723</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Excellent Candlewood Suites</t>
+  </si>
+  <si>
+    <t>I stay at Candlewood's all over the country, this property ranks among the best. The staff is attentive and friendly. Very clean and up to date rooms. The Candlewood Cupboard is fully stocked with everything you will need. There is also Target within walking distance. If you decide to stay at this hotel, make sure you understand their housekeeping policy. Rooms are cleaned once a week or on demand. I recommend this property and will stay here again next visit to Galveston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r257346643-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>257346643</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Great staff and nice accommodations!</t>
+  </si>
+  <si>
+    <t>We stayed at the Candlewood Suites for a night and day for my husband to catch up on some computer work - wifi access worked very well.  I caught up our travel laundry in the free machines!  The suite had two rooms so plenty of room to stretch out.   We had our Kitty and she enjoyed her stay too!  Staff checking in and during the day were GREAT!  All were very pleasant!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r255444299-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>255444299</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Outstanding Service</t>
+  </si>
+  <si>
+    <t>Just want to say how nice our stay and how helpful the staff was.  They advised us where to eat when we stated we wanted seafood and also directions and best way to get to the dock and parking to embark on our cruise.  Outstanding staff.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r246553825-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>246553825</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Couldn't have been better!</t>
+  </si>
+  <si>
+    <t>We have been coming to Galveston for years and I wish we had found this hotel sooner! So clean and the freshest smelling room I think we have ever stayed in. Ali upgraded us to the suite which was so roomy and loved having the kitchenette, Thank you again!  The bed was very comfortable, just wish the hotel had King beds instead of Queens. Not really a problem though as we slept well. Kelly was so sweet and she helped us with our DVD movies selection, Thank you! Really in a great location across from a shopping center with a Target which we took advantage of. Thanks Kelly for the peanut butter cookies!! I don't think I have ever felt so valued as a rewards club member as Ali made us feel. It was a rewards night that we used and Ali made us feel more honored than if we had paid the highest rate in the hotel! We will stay here next time without a doubt!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>We have been coming to Galveston for years and I wish we had found this hotel sooner! So clean and the freshest smelling room I think we have ever stayed in. Ali upgraded us to the suite which was so roomy and loved having the kitchenette, Thank you again!  The bed was very comfortable, just wish the hotel had King beds instead of Queens. Not really a problem though as we slept well. Kelly was so sweet and she helped us with our DVD movies selection, Thank you! Really in a great location across from a shopping center with a Target which we took advantage of. Thanks Kelly for the peanut butter cookies!! I don't think I have ever felt so valued as a rewards club member as Ali made us feel. It was a rewards night that we used and Ali made us feel more honored than if we had paid the highest rate in the hotel! We will stay here next time without a doubt!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r245814882-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>245814882</t>
+  </si>
+  <si>
+    <t>12/25/2014</t>
+  </si>
+  <si>
+    <t>Happy well rested customer</t>
+  </si>
+  <si>
+    <t>I would like to say that staying at this hotel has been an overall great experience . The front desk management and staff was very helpful with all of my everyday needs . This is truly a five star hotel in my eyes .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r242090217-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>242090217</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>wonderful place to stay</t>
+  </si>
+  <si>
+    <t>actually we are there now and enjoying the stay very much.
+this location is centrally located to most things in galveston.
+close enough that if you need an afternoon siesta just drive right back.
+it is right near highway 45.
+c
+the room is clean, comfortable and .quite spacious for the two of us.
+the furniture and carpet is in good condition and very clean, but could be a little updated.
+the bed is very nice and comfortable - we have had 3 very good night's sleep.
+the kitchenette in sufficiently outfitted for light cooking.
+if you need something that is not in the kitchenette there is a borrowing pantry that would have most anything you would need.
+they have a pantry area with some food items for sale and complimentary coffee and tea (in addition to what is in your room).
+the staff has been VERY pleasant and helpful.
+Akbar, the manager, was usually here since it is a holiday (thanksgiving) weekend.
+he is spending many hours here so employees an spend time with their families.
+as the saying goes, take care of your employees and they will take care of your customers.
+that is what is happeneing here at this candlewood.
+Kelly and Jenny (i think) have been very nice and helpful.
+Akbar will do all he can to make sure you have a pleasant stay.
+he can also be interesting to speak with and he can give...actually we are there now and enjoying the stay very much.this location is centrally located to most things in galveston.close enough that if you need an afternoon siesta just drive right back.it is right near highway 45.cthe room is clean, comfortable and .quite spacious for the two of us.the furniture and carpet is in good condition and very clean, but could be a little updated.the bed is very nice and comfortable - we have had 3 very good night's sleep.the kitchenette in sufficiently outfitted for light cooking.if you need something that is not in the kitchenette there is a borrowing pantry that would have most anything you would need.they have a pantry area with some food items for sale and complimentary coffee and tea (in addition to what is in your room).the staff has been VERY pleasant and helpful.Akbar, the manager, was usually here since it is a holiday (thanksgiving) weekend.he is spending many hours here so employees an spend time with their families.as the saying goes, take care of your employees and they will take care of your customers.that is what is happeneing here at this candlewood.Kelly and Jenny (i think) have been very nice and helpful.Akbar will do all he can to make sure you have a pleasant stay.he can also be interesting to speak with and he can give you information about galveston.we would definitely recommend staying at this establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>actually we are there now and enjoying the stay very much.
+this location is centrally located to most things in galveston.
+close enough that if you need an afternoon siesta just drive right back.
+it is right near highway 45.
+c
+the room is clean, comfortable and .quite spacious for the two of us.
+the furniture and carpet is in good condition and very clean, but could be a little updated.
+the bed is very nice and comfortable - we have had 3 very good night's sleep.
+the kitchenette in sufficiently outfitted for light cooking.
+if you need something that is not in the kitchenette there is a borrowing pantry that would have most anything you would need.
+they have a pantry area with some food items for sale and complimentary coffee and tea (in addition to what is in your room).
+the staff has been VERY pleasant and helpful.
+Akbar, the manager, was usually here since it is a holiday (thanksgiving) weekend.
+he is spending many hours here so employees an spend time with their families.
+as the saying goes, take care of your employees and they will take care of your customers.
+that is what is happeneing here at this candlewood.
+Kelly and Jenny (i think) have been very nice and helpful.
+Akbar will do all he can to make sure you have a pleasant stay.
+he can also be interesting to speak with and he can give...actually we are there now and enjoying the stay very much.this location is centrally located to most things in galveston.close enough that if you need an afternoon siesta just drive right back.it is right near highway 45.cthe room is clean, comfortable and .quite spacious for the two of us.the furniture and carpet is in good condition and very clean, but could be a little updated.the bed is very nice and comfortable - we have had 3 very good night's sleep.the kitchenette in sufficiently outfitted for light cooking.if you need something that is not in the kitchenette there is a borrowing pantry that would have most anything you would need.they have a pantry area with some food items for sale and complimentary coffee and tea (in addition to what is in your room).the staff has been VERY pleasant and helpful.Akbar, the manager, was usually here since it is a holiday (thanksgiving) weekend.he is spending many hours here so employees an spend time with their families.as the saying goes, take care of your employees and they will take care of your customers.that is what is happeneing here at this candlewood.Kelly and Jenny (i think) have been very nice and helpful.Akbar will do all he can to make sure you have a pleasant stay.he can also be interesting to speak with and he can give you information about galveston.we would definitely recommend staying at this establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r239995558-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>239995558</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>For Business or Leisure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was very happy with my stay at the Candlewood suites in Galveston!! Just crossing over on the island, the hotel is very conveniently located off 45! Hotel is very clean and modern! Staff was very friendly and helpful! Helpful tip, start your ice machine as soon as you walk in! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r239812379-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>239812379</t>
+  </si>
+  <si>
+    <t>11/14/2014</t>
+  </si>
+  <si>
+    <t>Great staff, Great Location</t>
+  </si>
+  <si>
+    <t>I could not of asked for anything more.  My wife and I stayed for 4 days and never had a single complaint.  The rooms were clean, the service was excellent.  We were just minutes away from some spectacular sights, Galveston Island is so beautiful.  We would really like to thank Akbar Ali for all his help.  He made sure our stay was perfect and recommended some amazing sites for us to check out.  We will definitely recommend Candlewood  Suites Galveston to our friends.  Thanks again for a worry free stay.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r223277786-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>223277786</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>great!!!!</t>
+  </si>
+  <si>
+    <t>me and my wife stayed here for four nights and this place is truly awesome.The front desk staff were great! One girl in particular went out of her way to help in any way we needed. Management was just as great!  The room were clean and the lobby smelled great! We recommend this hotel to anyone and everyone!</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r221226714-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>221226714</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Not the best in Galveston</t>
+  </si>
+  <si>
+    <t>We've stayed in Galveston numerous times and we were looking for a less-expensive option.  The room was in decent condition.  We did love that it had a full refrigerator.  The beds were comfortable.  Our room was on the outside wall close to the pool and, unfortunately, the walls must be paper-thin because there was a group of people at the pool late the first evening and we could hear everything they were saying.  They were loud and kept us awake.  We did call the front desk to complain and they did make sure the people left (thankful for good staff).  We went swimming in the pool the next day and the pool was nice.  However, the outside door entering the hotel on the Southside had a broken lock - so anyone could gain access to the hotel at any time without a key.  That was a bit unsettling.  I suppose the facilities were nice but the price was high.  Chalk it up to supply and demand.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Galveston, responded to this reviewResponded August 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2014</t>
+  </si>
+  <si>
+    <t>We've stayed in Galveston numerous times and we were looking for a less-expensive option.  The room was in decent condition.  We did love that it had a full refrigerator.  The beds were comfortable.  Our room was on the outside wall close to the pool and, unfortunately, the walls must be paper-thin because there was a group of people at the pool late the first evening and we could hear everything they were saying.  They were loud and kept us awake.  We did call the front desk to complain and they did make sure the people left (thankful for good staff).  We went swimming in the pool the next day and the pool was nice.  However, the outside door entering the hotel on the Southside had a broken lock - so anyone could gain access to the hotel at any time without a key.  That was a bit unsettling.  I suppose the facilities were nice but the price was high.  Chalk it up to supply and demand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r218964485-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>218964485</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>Great Place for Family</t>
+  </si>
+  <si>
+    <t>My wife, daughter and I just spent a week at this hotel and our room was “Excellent”.  We paid allot less than many hotels prices in the area and got more “Bang-for –our-Buck” than others were offering.  A separate bedroom and a nice kitchen were great for our family and entertaining our guest.  The kitchen didn’t have an oven just a toaster but two top eyes, full frig, lg microwave, dishwasher etc. and a good size kitchen for a hotel room.  The area was nice and safe, a large Target just next door; we spent lots of time at the pool, and the Staff and Management was extremely helpful with our concerns.  We will be returning customers and highly recommend to any family.LawrenceMoreShow less</t>
+  </si>
+  <si>
+    <t>My wife, daughter and I just spent a week at this hotel and our room was “Excellent”.  We paid allot less than many hotels prices in the area and got more “Bang-for –our-Buck” than others were offering.  A separate bedroom and a nice kitchen were great for our family and entertaining our guest.  The kitchen didn’t have an oven just a toaster but two top eyes, full frig, lg microwave, dishwasher etc. and a good size kitchen for a hotel room.  The area was nice and safe, a large Target just next door; we spent lots of time at the pool, and the Staff and Management was extremely helpful with our concerns.  We will be returning customers and highly recommend to any family.LawrenceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r214854579-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>214854579</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>The Best!!!!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here three nights.  We had all of the comforts of home.  A very nice kitchenette with a full sized refrigerator, a closet in the entry, nice sized living room area that included a sofa bed and recliner, a very comfortable bedroom that included a second closet.  All of the staff was very accommodating.  They were friendly, efficient, and knowledgable of the City.  We've stayed at other hotels in the area, i.e..The San Luis but this was much nicer.  we will definitely stay here again!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r213922528-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>213922528</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>My husband and I stay in hotels more than we are home and we have found that management is the key to the experience at each place. We highly recommend this hotel in the Galveston area. Management and staff care about their guests and will go to great lengths to provide what is necessary to make your stay what it needs to be. If we are ever back in this area, we won't hesitate to book a room at 808 61st</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r207294415-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>207294415</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Nice enough for an overnight before our cruise</t>
+  </si>
+  <si>
+    <t>We had a large group going on a cruise (including some elderly relatives) so we needed a reasonably priced hotel to stay at before our cruise.  We didn't need a place close to the beach nor did we want to pay the higher prices.  This was a good choice. This hotel was right off the highway as we drove in from Houston- very easy to find.  We went to the beach for dinner and it took us less than 10 minutes to get to the strand.   Moody Gardens was even closer.Within walking distance of the hotel there were loads of shops (like Target) and fast food places. So anyone that wanted to go shopping for last minute supplies or even grab a snack could easily walk. This is considered an "extended stay" hotel so there is no breakfast provided but there was free coffee both in the room and down stairs in the lobby area.  Plus there was a full kitchen in each room so you could bring supplies for meals- or walk across the street to buy supplies.It was clean and the staff was quite helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>We had a large group going on a cruise (including some elderly relatives) so we needed a reasonably priced hotel to stay at before our cruise.  We didn't need a place close to the beach nor did we want to pay the higher prices.  This was a good choice. This hotel was right off the highway as we drove in from Houston- very easy to find.  We went to the beach for dinner and it took us less than 10 minutes to get to the strand.   Moody Gardens was even closer.Within walking distance of the hotel there were loads of shops (like Target) and fast food places. So anyone that wanted to go shopping for last minute supplies or even grab a snack could easily walk. This is considered an "extended stay" hotel so there is no breakfast provided but there was free coffee both in the room and down stairs in the lobby area.  Plus there was a full kitchen in each room so you could bring supplies for meals- or walk across the street to buy supplies.It was clean and the staff was quite helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r189524885-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>189524885</t>
+  </si>
+  <si>
+    <t>01/03/2014</t>
+  </si>
+  <si>
+    <t>I loved the experience!!</t>
+  </si>
+  <si>
+    <t>I loved the way the staff at this place was sooooo caring and so genuinely sincere in their service. I stayed here for three days and these were the best days of my travel!!!! I'd recommend every one to go to the candlewood suites!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r188366294-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>188366294</t>
+  </si>
+  <si>
+    <t>12/23/2013</t>
+  </si>
+  <si>
+    <t>Christmas in Galveston</t>
+  </si>
+  <si>
+    <t>We were in Galveston to attend a Christmas concert and to visit with some old friends. The hotel was very nice. The room was a one bedroom with plenty of space. We enjoy Candlewood Suites because they have a full kitchen. Service was excellent. They welcomed our dogs as well. We had a great time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r180411433-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>180411433</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>Comfortable, efficient</t>
+  </si>
+  <si>
+    <t>Stayed in preparation for the 5150 triathlon in Galveston and found this property conveniently located. Nice rooms, efficient layout, all things working fine, friendly staff. Secure parking, good size pool and resting area.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r175273348-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>175273348</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>Back Again, Loved It Again!!</t>
+  </si>
+  <si>
+    <t>We recently took a 3 day getaway to Galveston Island. We stayed in the Candlewood Suites for the second time &amp; were very happy, AGAIN!
+The room was great, (having a full size refrigerator, two burner stove-top, &amp; microwave is great for us! We cooked breakfast &amp; lunch in the room to save money!!), the pool was great, (the hot tub wasn't working though!), the staff were great!!!
+There is a grill &amp; seating area that is available for hotel guests, (we didn't use it, but we checked it out), a "country cupboard" , (that has snacks &amp; food for people to get for their rooms), &amp; a computer room/wi-fi area down by the front desk. 
+They also have DVD's &amp; video games for you to borrow &amp;, (what I think), was coolest of all, there are two machines in the pool area that allow handicap patrons to use the pool &amp; hot tub. To me this is awesome!!! I work at a Research &amp; Rehab hospital in Houston &amp; seeing these machines that allow disabled patrons to have access to the pool area is fantastic!
+The location of this hotel is fine with no problem getting around, (I've read some reviews that say it's "way out of the way", which is untrue). You are a 10 minute drive down Broadway to The Seawall at Stewart Beach. Halfway down the Broadway drive, you turn left to get to The Strand,...We recently took a 3 day getaway to Galveston Island. We stayed in the Candlewood Suites for the second time &amp; were very happy, AGAIN!The room was great, (having a full size refrigerator, two burner stove-top, &amp; microwave is great for us! We cooked breakfast &amp; lunch in the room to save money!!), the pool was great, (the hot tub wasn't working though!), the staff were great!!!There is a grill &amp; seating area that is available for hotel guests, (we didn't use it, but we checked it out), a "country cupboard" , (that has snacks &amp; food for people to get for their rooms), &amp; a computer room/wi-fi area down by the front desk. They also have DVD's &amp; video games for you to borrow &amp;, (what I think), was coolest of all, there are two machines in the pool area that allow handicap patrons to use the pool &amp; hot tub. To me this is awesome!!! I work at a Research &amp; Rehab hospital in Houston &amp; seeing these machines that allow disabled patrons to have access to the pool area is fantastic!The location of this hotel is fine with no problem getting around, (I've read some reviews that say it's "way out of the way", which is untrue). You are a 10 minute drive down Broadway to The Seawall at Stewart Beach. Halfway down the Broadway drive, you turn left to get to The Strand, (10 minutes from hotel). And if you go up 61st Street, (5 minutes from hotel), you hit the Seawall further down, so you can work your way back down the Seawall to Pleasure Pier, The Convention Center, etc.Overall, we were very happy, (Again!), &amp; will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>We recently took a 3 day getaway to Galveston Island. We stayed in the Candlewood Suites for the second time &amp; were very happy, AGAIN!
+The room was great, (having a full size refrigerator, two burner stove-top, &amp; microwave is great for us! We cooked breakfast &amp; lunch in the room to save money!!), the pool was great, (the hot tub wasn't working though!), the staff were great!!!
+There is a grill &amp; seating area that is available for hotel guests, (we didn't use it, but we checked it out), a "country cupboard" , (that has snacks &amp; food for people to get for their rooms), &amp; a computer room/wi-fi area down by the front desk. 
+They also have DVD's &amp; video games for you to borrow &amp;, (what I think), was coolest of all, there are two machines in the pool area that allow handicap patrons to use the pool &amp; hot tub. To me this is awesome!!! I work at a Research &amp; Rehab hospital in Houston &amp; seeing these machines that allow disabled patrons to have access to the pool area is fantastic!
+The location of this hotel is fine with no problem getting around, (I've read some reviews that say it's "way out of the way", which is untrue). You are a 10 minute drive down Broadway to The Seawall at Stewart Beach. Halfway down the Broadway drive, you turn left to get to The Strand,...We recently took a 3 day getaway to Galveston Island. We stayed in the Candlewood Suites for the second time &amp; were very happy, AGAIN!The room was great, (having a full size refrigerator, two burner stove-top, &amp; microwave is great for us! We cooked breakfast &amp; lunch in the room to save money!!), the pool was great, (the hot tub wasn't working though!), the staff were great!!!There is a grill &amp; seating area that is available for hotel guests, (we didn't use it, but we checked it out), a "country cupboard" , (that has snacks &amp; food for people to get for their rooms), &amp; a computer room/wi-fi area down by the front desk. They also have DVD's &amp; video games for you to borrow &amp;, (what I think), was coolest of all, there are two machines in the pool area that allow handicap patrons to use the pool &amp; hot tub. To me this is awesome!!! I work at a Research &amp; Rehab hospital in Houston &amp; seeing these machines that allow disabled patrons to have access to the pool area is fantastic!The location of this hotel is fine with no problem getting around, (I've read some reviews that say it's "way out of the way", which is untrue). You are a 10 minute drive down Broadway to The Seawall at Stewart Beach. Halfway down the Broadway drive, you turn left to get to The Strand, (10 minutes from hotel). And if you go up 61st Street, (5 minutes from hotel), you hit the Seawall further down, so you can work your way back down the Seawall to Pleasure Pier, The Convention Center, etc.Overall, we were very happy, (Again!), &amp; will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r171549817-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>171549817</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>Good value for the points spent</t>
+  </si>
+  <si>
+    <t>Location:
+The hotel is less than 2 miles from the main beach and the nightlife in town, but I have to say for 5,000 points per night during the Priority Club Points Break promotion, it was more than perfect and we were really happy to have been able to stay here.
+The room:
+The room was pretty good and had the normal extended stay amenities, like a two-stove top, dishwasher, kitchen utensils, a microwave and a large fridge, plus all necessary kitchen utensils, plates, etc. There is a Target right next door, so you can definitely save some money doing grocery shopping and cooking a few meals in the room. The only sort of problem we had with the room was with the A/C, which each time it was running, the room seem to get awfully cold in a hurry, so we had to tweak it constantly until we found a decent enough balance to keep the room comfortable.
+This is an extended-stay hotel, so housekeeping does the rooms weekly for those staying longer than a week. If you need anything such as fresh towels, toiletries, etc., the hotel staff is happy to provide them for you.
+The Incident:
+There was a large family checking in early Sunday morning at around 2:00 a.m., and they did not seem to understand the concept of silence at night, and their kids kept running and screaming up and down the hallway for about...Location:The hotel is less than 2 miles from the main beach and the nightlife in town, but I have to say for 5,000 points per night during the Priority Club Points Break promotion, it was more than perfect and we were really happy to have been able to stay here.The room:The room was pretty good and had the normal extended stay amenities, like a two-stove top, dishwasher, kitchen utensils, a microwave and a large fridge, plus all necessary kitchen utensils, plates, etc. There is a Target right next door, so you can definitely save some money doing grocery shopping and cooking a few meals in the room. The only sort of problem we had with the room was with the A/C, which each time it was running, the room seem to get awfully cold in a hurry, so we had to tweak it constantly until we found a decent enough balance to keep the room comfortable.This is an extended-stay hotel, so housekeeping does the rooms weekly for those staying longer than a week. If you need anything such as fresh towels, toiletries, etc., the hotel staff is happy to provide them for you.The Incident:There was a large family checking in early Sunday morning at around 2:00 a.m., and they did not seem to understand the concept of silence at night, and their kids kept running and screaming up and down the hallway for about 90 minutes after 2:00 a.m. The family had rented two or three rooms, and they were actually yelling to each other from across the hallway at the wee hours of the night. We had to call the hotel twice and the front desk night clerk seemed somewhat oblivious to what was going on, and sounded more annoyed about us calling her with the problem than with the actual problem itself. Either way, we met the hotel's GM on the way out and mentioned the incident to him and he was very receptive and apologetic about the whole thing, so in the end this didn't change our opinion of the hotel itself. Other amenities:The hotel rate includes free parking and internet access. The rooms also have DirecTV including HBO. There is also an outdoor pool and hot tub, as well as a small fitness center/laundry room. There is also a small store with some beverages and snacks for a charge. For the 5,000 points per night we used, you can't beat a better hotel, and would definitely go back in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Location:
+The hotel is less than 2 miles from the main beach and the nightlife in town, but I have to say for 5,000 points per night during the Priority Club Points Break promotion, it was more than perfect and we were really happy to have been able to stay here.
+The room:
+The room was pretty good and had the normal extended stay amenities, like a two-stove top, dishwasher, kitchen utensils, a microwave and a large fridge, plus all necessary kitchen utensils, plates, etc. There is a Target right next door, so you can definitely save some money doing grocery shopping and cooking a few meals in the room. The only sort of problem we had with the room was with the A/C, which each time it was running, the room seem to get awfully cold in a hurry, so we had to tweak it constantly until we found a decent enough balance to keep the room comfortable.
+This is an extended-stay hotel, so housekeeping does the rooms weekly for those staying longer than a week. If you need anything such as fresh towels, toiletries, etc., the hotel staff is happy to provide them for you.
+The Incident:
+There was a large family checking in early Sunday morning at around 2:00 a.m., and they did not seem to understand the concept of silence at night, and their kids kept running and screaming up and down the hallway for about...Location:The hotel is less than 2 miles from the main beach and the nightlife in town, but I have to say for 5,000 points per night during the Priority Club Points Break promotion, it was more than perfect and we were really happy to have been able to stay here.The room:The room was pretty good and had the normal extended stay amenities, like a two-stove top, dishwasher, kitchen utensils, a microwave and a large fridge, plus all necessary kitchen utensils, plates, etc. There is a Target right next door, so you can definitely save some money doing grocery shopping and cooking a few meals in the room. The only sort of problem we had with the room was with the A/C, which each time it was running, the room seem to get awfully cold in a hurry, so we had to tweak it constantly until we found a decent enough balance to keep the room comfortable.This is an extended-stay hotel, so housekeeping does the rooms weekly for those staying longer than a week. If you need anything such as fresh towels, toiletries, etc., the hotel staff is happy to provide them for you.The Incident:There was a large family checking in early Sunday morning at around 2:00 a.m., and they did not seem to understand the concept of silence at night, and their kids kept running and screaming up and down the hallway for about 90 minutes after 2:00 a.m. The family had rented two or three rooms, and they were actually yelling to each other from across the hallway at the wee hours of the night. We had to call the hotel twice and the front desk night clerk seemed somewhat oblivious to what was going on, and sounded more annoyed about us calling her with the problem than with the actual problem itself. Either way, we met the hotel's GM on the way out and mentioned the incident to him and he was very receptive and apologetic about the whole thing, so in the end this didn't change our opinion of the hotel itself. Other amenities:The hotel rate includes free parking and internet access. The rooms also have DirecTV including HBO. There is also an outdoor pool and hot tub, as well as a small fitness center/laundry room. There is also a small store with some beverages and snacks for a charge. For the 5,000 points per night we used, you can't beat a better hotel, and would definitely go back in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r167198964-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>167198964</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>Roaches!</t>
+  </si>
+  <si>
+    <t>We stayed there one night on a short trip to the Texas coast.  The tone was more or less set by a sign that greeted us at the door when we checked in.  It read (I'm paraphrasing, but this is close...) "Attention guests: For security reason [sic], we do not accept cash payment for accommodation.  At all.  For any reason."  Okay, an odd way to make a first impression with your customers, but I'm paying with a credit card, so whatever...
+We checked into our room, and it was pretty nice, except...  Roaches!  There were two huge roaches on the floor in front of the kitchenette.  One was dead, the other was close.  I scooped them up in a paper towel and threw their little roach corpses out, only to find two more on the floor by the bed.  Before our stay was over, I'd find another one in the bathroom, and one more in the closet.
+One other thing that bothered me a little was the workmanship of the room.  It looks like this place was built by a contractor in a hurry. Paint lines weren't straight. Tiles weren't even. Outlets were crooked.  Not BAD, just sloppy.  If it were my house, I'd have made them try again.
+There is no free breakfast at the hotel.  I actually don't mind that - I knew it when I booked the room.  They did have a pantry area which offered free...We stayed there one night on a short trip to the Texas coast.  The tone was more or less set by a sign that greeted us at the door when we checked in.  It read (I'm paraphrasing, but this is close...) "Attention guests: For security reason [sic], we do not accept cash payment for accommodation.  At all.  For any reason."  Okay, an odd way to make a first impression with your customers, but I'm paying with a credit card, so whatever...We checked into our room, and it was pretty nice, except...  Roaches!  There were two huge roaches on the floor in front of the kitchenette.  One was dead, the other was close.  I scooped them up in a paper towel and threw their little roach corpses out, only to find two more on the floor by the bed.  Before our stay was over, I'd find another one in the bathroom, and one more in the closet.One other thing that bothered me a little was the workmanship of the room.  It looks like this place was built by a contractor in a hurry. Paint lines weren't straight. Tiles weren't even. Outlets were crooked.  Not BAD, just sloppy.  If it were my house, I'd have made them try again.There is no free breakfast at the hotel.  I actually don't mind that - I knew it when I booked the room.  They did have a pantry area which offered free coffee, and sold cold drinks, snacks, and even some frozen dinners at decent prices.  It looked neglected by the staff, though.  It badly needed to be restocked.  There were none of the advertised breakfast items to be found anywhere.Before I end this review, I should say something nice...  The pool is impressive.  Very, very nice for a budget hotel.  Hot tub, palm trees, clean water.  It was obviously well cared for.  If only the pool guy was in charge of pest control...MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Galveston, responded to this reviewResponded July 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2013</t>
+  </si>
+  <si>
+    <t>We stayed there one night on a short trip to the Texas coast.  The tone was more or less set by a sign that greeted us at the door when we checked in.  It read (I'm paraphrasing, but this is close...) "Attention guests: For security reason [sic], we do not accept cash payment for accommodation.  At all.  For any reason."  Okay, an odd way to make a first impression with your customers, but I'm paying with a credit card, so whatever...
+We checked into our room, and it was pretty nice, except...  Roaches!  There were two huge roaches on the floor in front of the kitchenette.  One was dead, the other was close.  I scooped them up in a paper towel and threw their little roach corpses out, only to find two more on the floor by the bed.  Before our stay was over, I'd find another one in the bathroom, and one more in the closet.
+One other thing that bothered me a little was the workmanship of the room.  It looks like this place was built by a contractor in a hurry. Paint lines weren't straight. Tiles weren't even. Outlets were crooked.  Not BAD, just sloppy.  If it were my house, I'd have made them try again.
+There is no free breakfast at the hotel.  I actually don't mind that - I knew it when I booked the room.  They did have a pantry area which offered free...We stayed there one night on a short trip to the Texas coast.  The tone was more or less set by a sign that greeted us at the door when we checked in.  It read (I'm paraphrasing, but this is close...) "Attention guests: For security reason [sic], we do not accept cash payment for accommodation.  At all.  For any reason."  Okay, an odd way to make a first impression with your customers, but I'm paying with a credit card, so whatever...We checked into our room, and it was pretty nice, except...  Roaches!  There were two huge roaches on the floor in front of the kitchenette.  One was dead, the other was close.  I scooped them up in a paper towel and threw their little roach corpses out, only to find two more on the floor by the bed.  Before our stay was over, I'd find another one in the bathroom, and one more in the closet.One other thing that bothered me a little was the workmanship of the room.  It looks like this place was built by a contractor in a hurry. Paint lines weren't straight. Tiles weren't even. Outlets were crooked.  Not BAD, just sloppy.  If it were my house, I'd have made them try again.There is no free breakfast at the hotel.  I actually don't mind that - I knew it when I booked the room.  They did have a pantry area which offered free coffee, and sold cold drinks, snacks, and even some frozen dinners at decent prices.  It looked neglected by the staff, though.  It badly needed to be restocked.  There were none of the advertised breakfast items to be found anywhere.Before I end this review, I should say something nice...  The pool is impressive.  Very, very nice for a budget hotel.  Hot tub, palm trees, clean water.  It was obviously well cared for.  If only the pool guy was in charge of pest control...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r162505145-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>162505145</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>Was in town for work and stayed here for thirty days. The management, front desk, and house keeping made me feel at home. There was a issue with a electric receptacle not working when I contacted the front desk they told me somebody would be there to fix it with in a short time it was fixed and working great.Will stay here again when I'm in town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r160500089-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>160500089</t>
+  </si>
+  <si>
+    <t>05/12/2013</t>
+  </si>
+  <si>
+    <t>Comfortable &amp; Spacious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff was very friendly and welcoming, the room was large and spacious with a comfortable bed and linens. I needed to print off a receipt and there was a computer and printer with easy access. I printed I off my document at no extra charge. They have a pantry stocked with with a variety of good things including a snacks and microwave meal.  You purchase on the honor system. The location was only minutes from the Cruise Terminal. We had a good stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r160016228-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>160016228</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Too Dang Noisy</t>
+  </si>
+  <si>
+    <t>My room was on the backside of the property to get away from the noisy expressway (I-45). The trains started clanging into each other about 2:30 am. Then about 6:30 am someone upstairs started stomping around (it's a 3 story wooden construction  property) and it was impossible to sleep.  Save your money and go elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Galveston, responded to this reviewResponded May 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2013</t>
+  </si>
+  <si>
+    <t>My room was on the backside of the property to get away from the noisy expressway (I-45). The trains started clanging into each other about 2:30 am. Then about 6:30 am someone upstairs started stomping around (it's a 3 story wooden construction  property) and it was impossible to sleep.  Save your money and go elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r154745899-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>154745899</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>Excellent place in Galveston</t>
+  </si>
+  <si>
+    <t>This was our first 'try' of Candlewood Suites on our 8 week road trip from Scotland to USA.We are timeshare owners and used with the 'at home' style and standards that Diamond Resorts give us.We were really impressed with Candlewood at Galveston- when we arrived , our room was next to a barking dog- not for us on a four night stay! The Operations Manager Akbar Ali Mukhida had no hesitation in changing our room.What a very professional and pleasant man- nothing was a problem to him on our stay- an asset to say the least at Candlewood.With quality spacious rooms with full kitchens and complimentary laundry,parking,fast wi fi and daily newspaper,we went ahead and booked Candlewood Dallas,San Antonio and El Paso as part of our Texas road trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>This was our first 'try' of Candlewood Suites on our 8 week road trip from Scotland to USA.We are timeshare owners and used with the 'at home' style and standards that Diamond Resorts give us.We were really impressed with Candlewood at Galveston- when we arrived , our room was next to a barking dog- not for us on a four night stay! The Operations Manager Akbar Ali Mukhida had no hesitation in changing our room.What a very professional and pleasant man- nothing was a problem to him on our stay- an asset to say the least at Candlewood.With quality spacious rooms with full kitchens and complimentary laundry,parking,fast wi fi and daily newspaper,we went ahead and booked Candlewood Dallas,San Antonio and El Paso as part of our Texas road trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r153398164-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>153398164</t>
+  </si>
+  <si>
+    <t>02/28/2013</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>When searching for a Pet Friendly hotel traveling with our Chocolate Lab, we were continually directed to La Quinta Inn on the web.  After some reviews regarding roaches, we canceled and looked at the alternative.  Candlewood Suites were pet friendly with a non-refundable pet fee of $75.  We calculated it by the day and it was very reasonable for what we were about to be pleasantly surprised of the amenities that this hotel had to offer. 
+The room was equipped with a full sized refrigerator with ice maker, large new GE microwave, dishwasher, and 2 burner stove top.  The cookware was commercial quality and being a chef and in the hospitality business my whole life, I was pleased.
+The Operations Manager Ali, was all about customer service protocol.  I am a very critical traveler because I am in the business.  He was attentive, had good relationships with his staff who were very courteous and respectful.  The goal of making a person feel like they are at home away from home was certainly achieved with this visit.  My friend who has a temporary assignment in Galveston at UTMB decided to stay at Candlewood rather than another competitor.  The kitchen offers so much more opportunity to eat healthy, make your lunch and dinner and not have to eat out all the time.  When you travel a lot, eating out gets old.
+The other great surprise is that they offer free laundry services...When searching for a Pet Friendly hotel traveling with our Chocolate Lab, we were continually directed to La Quinta Inn on the web.  After some reviews regarding roaches, we canceled and looked at the alternative.  Candlewood Suites were pet friendly with a non-refundable pet fee of $75.  We calculated it by the day and it was very reasonable for what we were about to be pleasantly surprised of the amenities that this hotel had to offer. The room was equipped with a full sized refrigerator with ice maker, large new GE microwave, dishwasher, and 2 burner stove top.  The cookware was commercial quality and being a chef and in the hospitality business my whole life, I was pleased.The Operations Manager Ali, was all about customer service protocol.  I am a very critical traveler because I am in the business.  He was attentive, had good relationships with his staff who were very courteous and respectful.  The goal of making a person feel like they are at home away from home was certainly achieved with this visit.  My friend who has a temporary assignment in Galveston at UTMB decided to stay at Candlewood rather than another competitor.  The kitchen offers so much more opportunity to eat healthy, make your lunch and dinner and not have to eat out all the time.  When you travel a lot, eating out gets old.The other great surprise is that they offer free laundry services with commercial washers and dryers.  The fitness room has high grade equipment.Oh, did I mention the pillow top mattresses and high quality bedding and towels.  The location is great as it is close to everything but not so much in the middle that you can't have your space.  Free daily papers.  Pool.  New flat screen TV's.  DVD loan library and gas grill outside.  And there is even a toaster oven upon request.  Wow, it has been a great stay.  I honestly could live here for a long term assignment and be very happy.At Candlewood, you really feel special.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>When searching for a Pet Friendly hotel traveling with our Chocolate Lab, we were continually directed to La Quinta Inn on the web.  After some reviews regarding roaches, we canceled and looked at the alternative.  Candlewood Suites were pet friendly with a non-refundable pet fee of $75.  We calculated it by the day and it was very reasonable for what we were about to be pleasantly surprised of the amenities that this hotel had to offer. 
+The room was equipped with a full sized refrigerator with ice maker, large new GE microwave, dishwasher, and 2 burner stove top.  The cookware was commercial quality and being a chef and in the hospitality business my whole life, I was pleased.
+The Operations Manager Ali, was all about customer service protocol.  I am a very critical traveler because I am in the business.  He was attentive, had good relationships with his staff who were very courteous and respectful.  The goal of making a person feel like they are at home away from home was certainly achieved with this visit.  My friend who has a temporary assignment in Galveston at UTMB decided to stay at Candlewood rather than another competitor.  The kitchen offers so much more opportunity to eat healthy, make your lunch and dinner and not have to eat out all the time.  When you travel a lot, eating out gets old.
+The other great surprise is that they offer free laundry services...When searching for a Pet Friendly hotel traveling with our Chocolate Lab, we were continually directed to La Quinta Inn on the web.  After some reviews regarding roaches, we canceled and looked at the alternative.  Candlewood Suites were pet friendly with a non-refundable pet fee of $75.  We calculated it by the day and it was very reasonable for what we were about to be pleasantly surprised of the amenities that this hotel had to offer. The room was equipped with a full sized refrigerator with ice maker, large new GE microwave, dishwasher, and 2 burner stove top.  The cookware was commercial quality and being a chef and in the hospitality business my whole life, I was pleased.The Operations Manager Ali, was all about customer service protocol.  I am a very critical traveler because I am in the business.  He was attentive, had good relationships with his staff who were very courteous and respectful.  The goal of making a person feel like they are at home away from home was certainly achieved with this visit.  My friend who has a temporary assignment in Galveston at UTMB decided to stay at Candlewood rather than another competitor.  The kitchen offers so much more opportunity to eat healthy, make your lunch and dinner and not have to eat out all the time.  When you travel a lot, eating out gets old.The other great surprise is that they offer free laundry services with commercial washers and dryers.  The fitness room has high grade equipment.Oh, did I mention the pillow top mattresses and high quality bedding and towels.  The location is great as it is close to everything but not so much in the middle that you can't have your space.  Free daily papers.  Pool.  New flat screen TV's.  DVD loan library and gas grill outside.  And there is even a toaster oven upon request.  Wow, it has been a great stay.  I honestly could live here for a long term assignment and be very happy.At Candlewood, you really feel special.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r151569625-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>151569625</t>
+  </si>
+  <si>
+    <t>02/06/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel With Caring Staff</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed here on three separate occasions for numerous days during each stay. We have a small daschund, who is very well behaved. But, very few good hotels will allow pets. We made the mistake of staying in three other hotels and cottages before finding Candlewood Suites. We will not stay anywhere else when we visit Galveston, whether or not we have our pet with us.The staff is very caring and responsive. The manager, Ali, is very accommodating, regardless of our requests. Ali truly wants the guests to feel welcome and to enjoy their stay. He is extremely interested in pleasing the guests, so that they will enjoy their stay and return to the Candlewood Suites. We highly recommend the Candlewood Suites in Galveston.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed here on three separate occasions for numerous days during each stay. We have a small daschund, who is very well behaved. But, very few good hotels will allow pets. We made the mistake of staying in three other hotels and cottages before finding Candlewood Suites. We will not stay anywhere else when we visit Galveston, whether or not we have our pet with us.The staff is very caring and responsive. The manager, Ali, is very accommodating, regardless of our requests. Ali truly wants the guests to feel welcome and to enjoy their stay. He is extremely interested in pleasing the guests, so that they will enjoy their stay and return to the Candlewood Suites. We highly recommend the Candlewood Suites in Galveston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r149770183-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>149770183</t>
+  </si>
+  <si>
+    <t>01/15/2013</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel before our cruise out of Galveston. We have stayed at Candlewood Suites before and are used to the amenities offered. This hotel was no different. The room was clean and comfortable. I really like the bed linens! The Operations Manager, Akbar Ali Mukhida, was very accommodating to all of our needs. We would stay here again.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r149751337-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>149751337</t>
+  </si>
+  <si>
+    <t>Hidden Gem!!!!</t>
+  </si>
+  <si>
+    <t>I have stayed at the Candlewood Suites Galveston for four nightsa week for past year and half.The hotel is exceptionally clean and comfortable. All of the employees were very courteous and helpful. The location is fabulous. I highly recommend it for anyone.   The staff here is great. This is truly my home away from home. The equipment in the gym is top noch. The room is cozy and the bed feels like my bed at home. Anything you need is just a quick phone call to Ali. I would recommend this hotel to everyone.Also i see some people with their pets(though there is additional charge for that)</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r149448994-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>149448994</t>
+  </si>
+  <si>
+    <t>01/11/2013</t>
+  </si>
+  <si>
+    <t>my stay with two problems................</t>
+  </si>
+  <si>
+    <t>What started out as a 2 night stay before we got there was only one night. My daughter and her husband did stay two. The hotel is "off the beaten path", which there is nothing wrong with that. There are stores just a short ways from there that you could get things to cook and eat. The grounds are nice, we were told the hottub worked BEFORE we got there, only to vbe informed it WAS NOT working. They did however have an alternative for u to DRIVE to the Hampton to use their facility. What did bother me is I left a new pair of jeans and shirt in the closet, and 4 hours after I left I had my daughter go to the front desk to get them. They weren't there. Was informed that procedure is to bring said items and log them. My daughter inquired again the same day that evening. No. I called the hotel the next day, and the manager said it was NOT left, and he was sorry. My daughter left that very afternoon. At that point I decided someone else needed new Christmas clothes. So, being an IH member I recieved a survey and that was one of the things I was disturbed about. (Let me stop here and say I stay at between 100-150 days a year in hotels, and have left items only to be returned or sent to me) ....What started out as a 2 night stay before we got there was only one night. My daughter and her husband did stay two. The hotel is "off the beaten path", which there is nothing wrong with that. There are stores just a short ways from there that you could get things to cook and eat. The grounds are nice, we were told the hottub worked BEFORE we got there, only to vbe informed it WAS NOT working. They did however have an alternative for u to DRIVE to the Hampton to use their facility. What did bother me is I left a new pair of jeans and shirt in the closet, and 4 hours after I left I had my daughter go to the front desk to get them. They weren't there. Was informed that procedure is to bring said items and log them. My daughter inquired again the same day that evening. No. I called the hotel the next day, and the manager said it was NOT left, and he was sorry. My daughter left that very afternoon. At that point I decided someone else needed new Christmas clothes. So, being an IH member I recieved a survey and that was one of the things I was disturbed about. (Let me stop here and say I stay at between 100-150 days a year in hotels, and have left items only to be returned or sent to me) . THE SAME DAY, almost within two hours difference I got a call from the hotel that they "found" my clothes. How totally amazing. ONE bad thing......and it was discussed several times. If you want it back you either have to go back to the hotel and get them, or pay UPS or FEDEX to have them sent to you. So you decide, if the3y had followed policy, I would have had MY daughter bring them home to East Texas, but since they didn't I'm still pentalized for the return of my clothes. This is the 1st and last time I will be staying at a Candlewood. It left me with a bad feeling.MoreShow less</t>
+  </si>
+  <si>
+    <t>glscw, Manager at Candlewood Suites Galveston, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>What started out as a 2 night stay before we got there was only one night. My daughter and her husband did stay two. The hotel is "off the beaten path", which there is nothing wrong with that. There are stores just a short ways from there that you could get things to cook and eat. The grounds are nice, we were told the hottub worked BEFORE we got there, only to vbe informed it WAS NOT working. They did however have an alternative for u to DRIVE to the Hampton to use their facility. What did bother me is I left a new pair of jeans and shirt in the closet, and 4 hours after I left I had my daughter go to the front desk to get them. They weren't there. Was informed that procedure is to bring said items and log them. My daughter inquired again the same day that evening. No. I called the hotel the next day, and the manager said it was NOT left, and he was sorry. My daughter left that very afternoon. At that point I decided someone else needed new Christmas clothes. So, being an IH member I recieved a survey and that was one of the things I was disturbed about. (Let me stop here and say I stay at between 100-150 days a year in hotels, and have left items only to be returned or sent to me) ....What started out as a 2 night stay before we got there was only one night. My daughter and her husband did stay two. The hotel is "off the beaten path", which there is nothing wrong with that. There are stores just a short ways from there that you could get things to cook and eat. The grounds are nice, we were told the hottub worked BEFORE we got there, only to vbe informed it WAS NOT working. They did however have an alternative for u to DRIVE to the Hampton to use their facility. What did bother me is I left a new pair of jeans and shirt in the closet, and 4 hours after I left I had my daughter go to the front desk to get them. They weren't there. Was informed that procedure is to bring said items and log them. My daughter inquired again the same day that evening. No. I called the hotel the next day, and the manager said it was NOT left, and he was sorry. My daughter left that very afternoon. At that point I decided someone else needed new Christmas clothes. So, being an IH member I recieved a survey and that was one of the things I was disturbed about. (Let me stop here and say I stay at between 100-150 days a year in hotels, and have left items only to be returned or sent to me) . THE SAME DAY, almost within two hours difference I got a call from the hotel that they "found" my clothes. How totally amazing. ONE bad thing......and it was discussed several times. If you want it back you either have to go back to the hotel and get them, or pay UPS or FEDEX to have them sent to you. So you decide, if the3y had followed policy, I would have had MY daughter bring them home to East Texas, but since they didn't I'm still pentalized for the return of my clothes. This is the 1st and last time I will be staying at a Candlewood. It left me with a bad feeling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r146114660-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>146114660</t>
+  </si>
+  <si>
+    <t>11/24/2012</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Originally, I was just spending the night on my way home (going from Corpus Christi to Georgia), and stop to visit friends at the church. However, after being advised of the Linger Longer program (stay until 6 pm, for half the daily rate) and being given some suggestions by the girl at the front desk (Can't remember her name, but she deserves a huge compliment. She was the desk after I checked in, and back the next morning) I stayed until 6 and did some sightseeing in the Strand area.The location is great for the cruise crowd. Its close to the Cruise Terminal, and the Super Target is across the street, for groceries, or anything else you need.Finally, not only did they acknowledge my Platinum level, but upgraded me to a suite. Very nice, even if it's only for a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Originally, I was just spending the night on my way home (going from Corpus Christi to Georgia), and stop to visit friends at the church. However, after being advised of the Linger Longer program (stay until 6 pm, for half the daily rate) and being given some suggestions by the girl at the front desk (Can't remember her name, but she deserves a huge compliment. She was the desk after I checked in, and back the next morning) I stayed until 6 and did some sightseeing in the Strand area.The location is great for the cruise crowd. Its close to the Cruise Terminal, and the Super Target is across the street, for groceries, or anything else you need.Finally, not only did they acknowledge my Platinum level, but upgraded me to a suite. Very nice, even if it's only for a night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r145242896-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>145242896</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>Will come back</t>
+  </si>
+  <si>
+    <t>I was there with my mom and wasn't aware of the fact that it was biker rally weekend but we booked the room without knowing this but it turns out excellent stay, staff was very help full they was trying to please every guest the best they can do, we had one bed room suite and room was nice and clean and newly renovated, only negative thing with the hotel and I think it's the hotel chain's policy that no house keeping every day but it didn't bothered us at all any thing we need we can ask front desk and they provided us with smile, over all we enjoyed this hotel and we will be back, great job Candlewood.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was there with my mom and wasn't aware of the fact that it was biker rally weekend but we booked the room without knowing this but it turns out excellent stay, staff was very help full they was trying to please every guest the best they can do, we had one bed room suite and room was nice and clean and newly renovated, only negative thing with the hotel and I think it's the hotel chain's policy that no house keeping every day but it didn't bothered us at all any thing we need we can ask front desk and they provided us with smile, over all we enjoyed this hotel and we will be back, great job Candlewood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r143726845-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>143726845</t>
+  </si>
+  <si>
+    <t>10/25/2012</t>
+  </si>
+  <si>
+    <t>AWESOME!!! Clean, terrific service!</t>
+  </si>
+  <si>
+    <t>I stayed at here last weekend after leaving another motel in the Galveston area. While the pricing was a little more than I wanted to pay - they did accept pets and the rooms were incredible. The beds were so soft, the pillows fluffy and not to mention the well manicured property.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r140490531-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>140490531</t>
+  </si>
+  <si>
+    <t>09/17/2012</t>
+  </si>
+  <si>
+    <t>Nice Clean Hotel</t>
+  </si>
+  <si>
+    <t>I stayed just one night with my wife and 2 kids and could have not been more pleased. The location is easy to find and there are many stores and restaurants nearby. Check-in was a breeze, even though we arrived an hour before check-in time. The hotel had an overall appearance of cleanliness and the staff was polite. The room was spacious and the bathroom was clean. The air conditioner works great. We never had a problem with it being too warm in our room. The pool was clean, although not fancy at all. My kids loved it!When I return to Galveston, I will probably stay here again. Even though it is not on the beach, its location is convienent and nothing is more than 15 minutes away. Who wants to look at the brown water of the Gulf of Mexico anyway?MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I stayed just one night with my wife and 2 kids and could have not been more pleased. The location is easy to find and there are many stores and restaurants nearby. Check-in was a breeze, even though we arrived an hour before check-in time. The hotel had an overall appearance of cleanliness and the staff was polite. The room was spacious and the bathroom was clean. The air conditioner works great. We never had a problem with it being too warm in our room. The pool was clean, although not fancy at all. My kids loved it!When I return to Galveston, I will probably stay here again. Even though it is not on the beach, its location is convienent and nothing is more than 15 minutes away. Who wants to look at the brown water of the Gulf of Mexico anyway?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r138062065-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>138062065</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>Weekend Getaway</t>
+  </si>
+  <si>
+    <t>I have never stayed at a Candlewood Suites before but I was pleasantly surprised!  The room was wonderful. I loved the full kitchen, it came in very handy!  The staff was wonderful and the construction crew that have been staying there (aka "the thugs") were awesome as well.  They helped us in choosing some great local places for good burgers!  We usually stay on the Seawall but I believe that I will book here again the next time we come.  I also loved the extra little family of 4 that show themselves to very few... that was another one of the highlights of my stay!  Great and friendly staff!!!!! I had a blast here!Connie IvyForney, TXMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I have never stayed at a Candlewood Suites before but I was pleasantly surprised!  The room was wonderful. I loved the full kitchen, it came in very handy!  The staff was wonderful and the construction crew that have been staying there (aka "the thugs") were awesome as well.  They helped us in choosing some great local places for good burgers!  We usually stay on the Seawall but I believe that I will book here again the next time we come.  I also loved the extra little family of 4 that show themselves to very few... that was another one of the highlights of my stay!  Great and friendly staff!!!!! I had a blast here!Connie IvyForney, TXMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r137783870-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>137783870</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>Family vacation almost at the beach</t>
+  </si>
+  <si>
+    <t>Stayed here a week. The manager and staff were very helpful and nice. Price was good because of the #of days we stayed.  Missed not being on the beach but is close. If you stay for a period of time you don't have daily room service.  They will give you what ever you need though, if you ask.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r132468688-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>132468688</t>
+  </si>
+  <si>
+    <t>06/21/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel for family vacation</t>
+  </si>
+  <si>
+    <t>My family stayed here for 2 nights for a beach vacation. I loved having a kitchen to prepare meals and save money on dining out. The Target across the street was great for picking up groceries. The rooms were clean, though a little small. We had a DVD player in the living area and borrowed movies from the front desk. The staff was friendly and accommodating. My only complaints were, the silverware in the room wasn't very clean. I rewashed them before we used them. The Wifi was weak in our room, but they had a computer near the lobby for guest use. We also smelled cigarette smoke on occasion even though our room was non-smoking. I think some of the other rooms on our floor (3rd) were smoking rooms. You do have to drive to the beach, but it's not far and there is parking on the seawall. I enjoyed our stay and would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family stayed here for 2 nights for a beach vacation. I loved having a kitchen to prepare meals and save money on dining out. The Target across the street was great for picking up groceries. The rooms were clean, though a little small. We had a DVD player in the living area and borrowed movies from the front desk. The staff was friendly and accommodating. My only complaints were, the silverware in the room wasn't very clean. I rewashed them before we used them. The Wifi was weak in our room, but they had a computer near the lobby for guest use. We also smelled cigarette smoke on occasion even though our room was non-smoking. I think some of the other rooms on our floor (3rd) were smoking rooms. You do have to drive to the beach, but it's not far and there is parking on the seawall. I enjoyed our stay and would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r132351341-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>132351341</t>
+  </si>
+  <si>
+    <t>06/19/2012</t>
+  </si>
+  <si>
+    <t>Mosquitos haven</t>
+  </si>
+  <si>
+    <t>Candlewood Suites is a very nice hotel with spacious rooms, a kitchenette, gym and a convenience store.The negative things of this hotel is that for 2 adults, the bed is somewhat small and more importantly, the parking lot and the pool area outside has too many MOSQUITOS which can turn a beautiful evening outside into a nightmare.Mosquitos attacked my wife and I as well as my puppy.  Every time i walked our puppy, i can see him dancing because of the mosquitos around the hotel. It made outside very uncomfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2012</t>
+  </si>
+  <si>
+    <t>Candlewood Suites is a very nice hotel with spacious rooms, a kitchenette, gym and a convenience store.The negative things of this hotel is that for 2 adults, the bed is somewhat small and more importantly, the parking lot and the pool area outside has too many MOSQUITOS which can turn a beautiful evening outside into a nightmare.Mosquitos attacked my wife and I as well as my puppy.  Every time i walked our puppy, i can see him dancing because of the mosquitos around the hotel. It made outside very uncomfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r132332934-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>132332934</t>
+  </si>
+  <si>
+    <t>this place is a death trap inside and out, and they steal too</t>
+  </si>
+  <si>
+    <t>we were there injune 2012.we were planning to stay 3-4 nights. we left after 2. the first day my kid slipped on rocks that were thrown in the pooland around the hot tub.she bruised herself it would have been worse thankfully my husband reacted and caught her .they were in there for 2 days until i cleaned them out. i told the front desk they left the rocks in there as if they would magically disappear. that wasn't the best part the hot tub button was live and 2 children were almost electroquted including my kid THE FRONT DESK MADE LIKE IT WAS OUR FAULT. . we left our room 4 1 hr and came back only to find MY HuSBANDS WEDDIND BAND STOLEN , I CALLED THE DESK they told us housekeeping didn'tgo in there. well our ring was missing and so was the garbage and the towels were folded.we would not checked in here if we would have known some of the cars outside for several nights were broken into. The funny thing was i neverheard a vaccuum going once i know bec the 1st day there we dropped poptarts in the hallway and elevator and it was there thewhole time we were . DO NOT STAY HERE ITB IS TTOO HIGH FOR  ALL THE CRAP WE HAD TO DEAL WITH.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2012</t>
+  </si>
+  <si>
+    <t>we were there injune 2012.we were planning to stay 3-4 nights. we left after 2. the first day my kid slipped on rocks that were thrown in the pooland around the hot tub.she bruised herself it would have been worse thankfully my husband reacted and caught her .they were in there for 2 days until i cleaned them out. i told the front desk they left the rocks in there as if they would magically disappear. that wasn't the best part the hot tub button was live and 2 children were almost electroquted including my kid THE FRONT DESK MADE LIKE IT WAS OUR FAULT. . we left our room 4 1 hr and came back only to find MY HuSBANDS WEDDIND BAND STOLEN , I CALLED THE DESK they told us housekeeping didn'tgo in there. well our ring was missing and so was the garbage and the towels were folded.we would not checked in here if we would have known some of the cars outside for several nights were broken into. The funny thing was i neverheard a vaccuum going once i know bec the 1st day there we dropped poptarts in the hallway and elevator and it was there thewhole time we were . DO NOT STAY HERE ITB IS TTOO HIGH FOR  ALL THE CRAP WE HAD TO DEAL WITH.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r127299459-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>127299459</t>
+  </si>
+  <si>
+    <t>04/05/2012</t>
+  </si>
+  <si>
+    <t>Small, but nice</t>
+  </si>
+  <si>
+    <t>We stayed here on a Saturday night.  We made our reservation at the very last minute, so there were not many vacancies in hotels around the area, and we ended up paying over $200 for the room.  That was too much.  We had a room with 2 double beds.  They apparently do not have rooms with 2 queen beds, which I thought was a little odd, but the beds were very comfortable.  The hotel is not on the seawall, it is on 61st street, but it is on the EAST side of the interstate, so it is a pretty good ways from the beach, definitely not within easy walking distance .  Even though it was full, we had no problems parking or checking in.  The room did have a full kitchen, which is really nice, and everything was clean.  The sink in the bathroom was hooked up backwards, with the cold on the left and the hot water to the right.  We could hear the people in the next room up and moving around at 2am.  Despite that, I would still say overall it was an ok place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>We stayed here on a Saturday night.  We made our reservation at the very last minute, so there were not many vacancies in hotels around the area, and we ended up paying over $200 for the room.  That was too much.  We had a room with 2 double beds.  They apparently do not have rooms with 2 queen beds, which I thought was a little odd, but the beds were very comfortable.  The hotel is not on the seawall, it is on 61st street, but it is on the EAST side of the interstate, so it is a pretty good ways from the beach, definitely not within easy walking distance .  Even though it was full, we had no problems parking or checking in.  The room did have a full kitchen, which is really nice, and everything was clean.  The sink in the bathroom was hooked up backwards, with the cold on the left and the hot water to the right.  We could hear the people in the next room up and moving around at 2am.  Despite that, I would still say overall it was an ok place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r126810001-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>126810001</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>A decent place but not the best.</t>
+  </si>
+  <si>
+    <t>My wife and I stayed two nights at this hotel in March 2012 and had a special rate of $82.00 per night. The room was comfortable, however the mattress was pretty hard. The A/C worked very well and the room was clean. The room had a small kitchen that seemed adequately equipped although we did not use it. This is not a total smoke free facility and that was disappointing. We were on the third floor on the supposed non-smoking end but when we walked out in the evening the smoke in the hallway was pretty bad. We could even smell it in our room when we went to bed. The maintenance is a little lacking here. The refrigerator made a noise and the door did not seal properly which added to the cigarette smoke smell in the room. I suppose I would not be opposed to staying here again but I would make sure up front that the door seals! The staff was friendly enough. This hotel is only a few minutes to the seawall and is located next to the highway and near a Target store. If you get a good rate here go for it!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Galveston, responded to this reviewResponded May 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2012</t>
+  </si>
+  <si>
+    <t>My wife and I stayed two nights at this hotel in March 2012 and had a special rate of $82.00 per night. The room was comfortable, however the mattress was pretty hard. The A/C worked very well and the room was clean. The room had a small kitchen that seemed adequately equipped although we did not use it. This is not a total smoke free facility and that was disappointing. We were on the third floor on the supposed non-smoking end but when we walked out in the evening the smoke in the hallway was pretty bad. We could even smell it in our room when we went to bed. The maintenance is a little lacking here. The refrigerator made a noise and the door did not seal properly which added to the cigarette smoke smell in the room. I suppose I would not be opposed to staying here again but I would make sure up front that the door seals! The staff was friendly enough. This hotel is only a few minutes to the seawall and is located next to the highway and near a Target store. If you get a good rate here go for it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r126586056-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>126586056</t>
+  </si>
+  <si>
+    <t>03/24/2012</t>
+  </si>
+  <si>
+    <t>Traveling with dogs....good experience</t>
+  </si>
+  <si>
+    <t>Wow, was I afraid after reading the reviews here...I had already booked this hotel cuz it's practically the only one with suites that accepts pets.  And I booked at a non-refundable rate.I think our experience is simply the difference in crowded vs. not crowded times of the year.  The front desk staff was nice, morning and evening, and talkative.  The room and hallways were clean, and I was wishing the weather was warm, cuz the pool was sparkling and inviting. The only negative was the location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r118977465-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>118977465</t>
+  </si>
+  <si>
+    <t>10/05/2011</t>
+  </si>
+  <si>
+    <t>OMG what a dump!</t>
+  </si>
+  <si>
+    <t>I've never smelled anything this gross. There was garbage stacked in the halls all day. Insects crawling all over everything. The staff was mean, rude, and used vulgar language. I don't speak spanish but from the body language of the staff, they were lucky my dad wasn't there or they would have wished they treated a lady with more respect. Even if you paid me to, I'd never stay at this hotel again. In a very poor location also.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r117549570-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>117549570</t>
+  </si>
+  <si>
+    <t>09/01/2011</t>
+  </si>
+  <si>
+    <t>I wish I had stayed home.</t>
+  </si>
+  <si>
+    <t>Worst vacation of my life. Hotel was very dirty and there was trash sitting in the halls all day. Smelled awful! Worst location on the island, nowhere near the seawall or anything. Pool is tiny and the employees and their friends stayed in it all the time. Loud, rude, and drunk. Parking lot lights were burned out or the hotel just never turned them on. Room had trails of fire ants all over. The staff screwed up my reservations, and were agitated that I booked a room there. They advertised having outdoor picnic and cooking amenities, but all they have is one dirty grill and a couple chairs right next to a major road. Overall a nasty and dangerous place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Galveston, responded to this reviewResponded September 6, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2011</t>
+  </si>
+  <si>
+    <t>Worst vacation of my life. Hotel was very dirty and there was trash sitting in the halls all day. Smelled awful! Worst location on the island, nowhere near the seawall or anything. Pool is tiny and the employees and their friends stayed in it all the time. Loud, rude, and drunk. Parking lot lights were burned out or the hotel just never turned them on. Room had trails of fire ants all over. The staff screwed up my reservations, and were agitated that I booked a room there. They advertised having outdoor picnic and cooking amenities, but all they have is one dirty grill and a couple chairs right next to a major road. Overall a nasty and dangerous place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r117289497-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>117289497</t>
+  </si>
+  <si>
+    <t>08/26/2011</t>
+  </si>
+  <si>
+    <t>Won't be back, EVER!</t>
+  </si>
+  <si>
+    <t>The staff was rude and lazy. The outside doors didn't lock. Trash was pilled in the hallways all day. The whole place was dirty and smelled very bad. Insects have over run the entire hotel. Kitchen wasn't stocked and staff wouldn't respond to any of my concerns. I'll never stay at another Candlewood Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, ihgcare at Candlewood Suites Galveston, responded to this reviewResponded September 8, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2011</t>
+  </si>
+  <si>
+    <t>The staff was rude and lazy. The outside doors didn't lock. Trash was pilled in the hallways all day. The whole place was dirty and smelled very bad. Insects have over run the entire hotel. Kitchen wasn't stocked and staff wouldn't respond to any of my concerns. I'll never stay at another Candlewood Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r116403998-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>116403998</t>
+  </si>
+  <si>
+    <t>08/07/2011</t>
+  </si>
+  <si>
+    <t>Yuck! Never again</t>
+  </si>
+  <si>
+    <t>We stayed on Friday for one night and the rate was $179 for a suite and $79 extra for our pet. For +$250, we were appalled at the hotel cleanliness, security, outside noise and general upkeep. It is located in a shady part of town. The doors to the outside are not secure. Some of the "guests" were shady and questionable. The room was clean and smelled fine but when we left our room, it was generally filthy. There was trash that needed to be picked up from rooms that was left out +12 hrs. The walls were dingy looking. The carpet smelled, was frayed and looked stained and soiled. There is ONE elevator and it is slow. The stairwells smelled like urine and were INFESTED with mosquitoes. In fact, the entire hotel grounds was a mosquito haven. Needless to say, it was HORRIBLE and we will never be there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, IHGCare at Candlewood Suites Galveston, responded to this reviewResponded August 15, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2011</t>
+  </si>
+  <si>
+    <t>We stayed on Friday for one night and the rate was $179 for a suite and $79 extra for our pet. For +$250, we were appalled at the hotel cleanliness, security, outside noise and general upkeep. It is located in a shady part of town. The doors to the outside are not secure. Some of the "guests" were shady and questionable. The room was clean and smelled fine but when we left our room, it was generally filthy. There was trash that needed to be picked up from rooms that was left out +12 hrs. The walls were dingy looking. The carpet smelled, was frayed and looked stained and soiled. There is ONE elevator and it is slow. The stairwells smelled like urine and were INFESTED with mosquitoes. In fact, the entire hotel grounds was a mosquito haven. Needless to say, it was HORRIBLE and we will never be there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r115893903-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>115893903</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Worst hotel ever!</t>
+  </si>
+  <si>
+    <t>We couldn't even stay here. The room smelled horrible. The bedding was like sandpaper. The staff was rude and dishonest. Hotel staff and their friends were always at the tiny swimming pool, so my family couldn't even use the pool. Room was full of fire ants. Cut our vacation short due to the atrocious hotel!</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r115753824-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>115753824</t>
+  </si>
+  <si>
+    <t>07/25/2011</t>
+  </si>
+  <si>
+    <t>GREAT FRONT DESK AND FOR THE MONEY</t>
+  </si>
+  <si>
+    <t>We really enjoyed the pool, location and the kitchen. It is a drive to the seawall. But GREAT for the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r114718117-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>114718117</t>
+  </si>
+  <si>
+    <t>06/24/2011</t>
+  </si>
+  <si>
+    <t>What a nasty front desk</t>
+  </si>
+  <si>
+    <t>I won't be staying here again.  The front desk was surly and did not advise me of anything offered by the hotel upon checkin.  My friend was sitting in the vehicle with the engine running waiting on me and the front desk made me go out in 100 degrees and move the truck away from the entrance.  Ugly check-in and a really bad mattress in the room.  Charge $75.00 for one night for my 15 pound dog.   Check-out early the following morning and a different check-out person at the front desk but not any better than the night before.  If you want to feel comfortable, go someplace else.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r114588391-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>114588391</t>
+  </si>
+  <si>
+    <t>06/20/2011</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>I'm a Galveston native and was thrilled to get to take my husband to see my hometown. We're on a budget so we decided to stay off the beach and use the savings for sightseeing and shopping. The price at Candlewood was great, and we certainly got what we paid for. The room was immaculate - no small feat to keep a bathroom clean in that humidity, as I well know - with great A/C and a nice kitchenette with full refrigerator.
+Some people have commented that they didn't like the weekly housekeeping. Doesn't bother me at all. I don't change towels and sheets daily at my own house and don't need it when I travel, either. I liked being able to leave for the day without worrying about putting everything away to make housekeeping easier.
+Free parking! Free wireless that was faster than I've had at some pricier hotels! They even had DVDs and books at the front desk that you could borrow. We didn't use the pool or fitness center but I did peek in and everything was quite nice.
+My one complaint is that the connecting doors between rooms mean you can hear the other room's tv and sometimes even conversations almost as if they were in your room. Fortunately, our neighbors must've realized that if they could hear us, we could hear them, and everyone kept it down after the first few minutes.
+It was the...I'm a Galveston native and was thrilled to get to take my husband to see my hometown. We're on a budget so we decided to stay off the beach and use the savings for sightseeing and shopping. The price at Candlewood was great, and we certainly got what we paid for. The room was immaculate - no small feat to keep a bathroom clean in that humidity, as I well know - with great A/C and a nice kitchenette with full refrigerator.Some people have commented that they didn't like the weekly housekeeping. Doesn't bother me at all. I don't change towels and sheets daily at my own house and don't need it when I travel, either. I liked being able to leave for the day without worrying about putting everything away to make housekeeping easier.Free parking! Free wireless that was faster than I've had at some pricier hotels! They even had DVDs and books at the front desk that you could borrow. We didn't use the pool or fitness center but I did peek in and everything was quite nice.My one complaint is that the connecting doors between rooms mean you can hear the other room's tv and sometimes even conversations almost as if they were in your room. Fortunately, our neighbors must've realized that if they could hear us, we could hear them, and everyone kept it down after the first few minutes.It was the perfect place for our little getaway and I'll definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm a Galveston native and was thrilled to get to take my husband to see my hometown. We're on a budget so we decided to stay off the beach and use the savings for sightseeing and shopping. The price at Candlewood was great, and we certainly got what we paid for. The room was immaculate - no small feat to keep a bathroom clean in that humidity, as I well know - with great A/C and a nice kitchenette with full refrigerator.
+Some people have commented that they didn't like the weekly housekeeping. Doesn't bother me at all. I don't change towels and sheets daily at my own house and don't need it when I travel, either. I liked being able to leave for the day without worrying about putting everything away to make housekeeping easier.
+Free parking! Free wireless that was faster than I've had at some pricier hotels! They even had DVDs and books at the front desk that you could borrow. We didn't use the pool or fitness center but I did peek in and everything was quite nice.
+My one complaint is that the connecting doors between rooms mean you can hear the other room's tv and sometimes even conversations almost as if they were in your room. Fortunately, our neighbors must've realized that if they could hear us, we could hear them, and everyone kept it down after the first few minutes.
+It was the...I'm a Galveston native and was thrilled to get to take my husband to see my hometown. We're on a budget so we decided to stay off the beach and use the savings for sightseeing and shopping. The price at Candlewood was great, and we certainly got what we paid for. The room was immaculate - no small feat to keep a bathroom clean in that humidity, as I well know - with great A/C and a nice kitchenette with full refrigerator.Some people have commented that they didn't like the weekly housekeeping. Doesn't bother me at all. I don't change towels and sheets daily at my own house and don't need it when I travel, either. I liked being able to leave for the day without worrying about putting everything away to make housekeeping easier.Free parking! Free wireless that was faster than I've had at some pricier hotels! They even had DVDs and books at the front desk that you could borrow. We didn't use the pool or fitness center but I did peek in and everything was quite nice.My one complaint is that the connecting doors between rooms mean you can hear the other room's tv and sometimes even conversations almost as if they were in your room. Fortunately, our neighbors must've realized that if they could hear us, we could hear them, and everyone kept it down after the first few minutes.It was the perfect place for our little getaway and I'll definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r75831877-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>75831877</t>
+  </si>
+  <si>
+    <t>08/18/2010</t>
+  </si>
+  <si>
+    <t>Great value, great hotel.</t>
+  </si>
+  <si>
+    <t>This was the best deal on the island for extended stay. The full kitchen saved us a ton of money for the whole week. Rooms were spacious, clean, comfortable a/c. The in room DVD player was great for the kids and for my yoga. Pool was great, clean and upkept. Staff was wonderful, always greeted us, loaned us the toaster oven to make pizza, so accomidating. Only $99/night through www.Galveston.com, saved &amp;20 per night. and still got the priority points. Would definatley stay there again.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r35881540-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>35881540</t>
+  </si>
+  <si>
+    <t>07/26/2009</t>
+  </si>
+  <si>
+    <t>Surprised with our very nice stay</t>
+  </si>
+  <si>
+    <t>Hubby and I were at Candlewood Suites this past Friday night before moving to a friend's beach house on Saturday.  We had a queen room with a kitchenette-full sized fridge, 2 burners, microwave.  Fair sized room, nice and cool and very clean.  Nice bathroom.  The small gym has nice equipment and they have free washers and dryers if you need them.  They had a grill for their guests as well.  This hotel is not near the Seawall and is too far to walk to the Seawall for a day at the beach.    That's probably why we got a reasonable rate when everything on or near the Seawall-even dumps had crazy prices!  I'd readily recommend this hotel to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>Hubby and I were at Candlewood Suites this past Friday night before moving to a friend's beach house on Saturday.  We had a queen room with a kitchenette-full sized fridge, 2 burners, microwave.  Fair sized room, nice and cool and very clean.  Nice bathroom.  The small gym has nice equipment and they have free washers and dryers if you need them.  They had a grill for their guests as well.  This hotel is not near the Seawall and is too far to walk to the Seawall for a day at the beach.    That's probably why we got a reasonable rate when everything on or near the Seawall-even dumps had crazy prices!  I'd readily recommend this hotel to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r33575810-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>33575810</t>
+  </si>
+  <si>
+    <t>06/30/2009</t>
+  </si>
+  <si>
+    <t>You get more than what you pay for here</t>
+  </si>
+  <si>
+    <t>When I had to re-book my hotel at the last minute due to an administrative error, I was forced to downgrade my choices because of the change in rates.  I normally stay at the hotel Galvez when I am in Galveston and as such enjoy the city a great deal.  When I had to book at the Candlewood Suites I was dissapointed because of the location, however when I arrived I was pleasantly surprised with all the other amenities.
+   upon check-in I was greeted by friendly staff who promptly got me through the check-in process and to my room.  now I have stayed in CWS hotels in the past and was not prepared for the renovations that this location had: hardwood floors, flat screen TV, stainless steel appliances and a great assortment of kitchen utensils and diningware.  The room was also immaculate (cleaner than a lot of higher end hotels) which made relaxing after a long flight.
+   I do reccomend that if you stay here you should have a rental car, as I mentioned earlier, the location is not in any way near the beach so if you plan on partaking in the usual tourist fare you would be better off driving there.  On the flip side, the hotel does find itself next to a large strip mall complete with a Target store which would be great for picking up any toiletries, beach stuff etc.  I am sure their prices...When I had to re-book my hotel at the last minute due to an administrative error, I was forced to downgrade my choices because of the change in rates.  I normally stay at the hotel Galvez when I am in Galveston and as such enjoy the city a great deal.  When I had to book at the Candlewood Suites I was dissapointed because of the location, however when I arrived I was pleasantly surprised with all the other amenities.   upon check-in I was greeted by friendly staff who promptly got me through the check-in process and to my room.  now I have stayed in CWS hotels in the past and was not prepared for the renovations that this location had: hardwood floors, flat screen TV, stainless steel appliances and a great assortment of kitchen utensils and diningware.  The room was also immaculate (cleaner than a lot of higher end hotels) which made relaxing after a long flight.   I do reccomend that if you stay here you should have a rental car, as I mentioned earlier, the location is not in any way near the beach so if you plan on partaking in the usual tourist fare you would be better off driving there.  On the flip side, the hotel does find itself next to a large strip mall complete with a Target store which would be great for picking up any toiletries, beach stuff etc.  I am sure their prices would be a LOT lower than the usual 'WINGS' stores nearer to the beach.   All in all I was pleasantly surprised, and as long as you don't expect to walk to the beach you will be too..MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>When I had to re-book my hotel at the last minute due to an administrative error, I was forced to downgrade my choices because of the change in rates.  I normally stay at the hotel Galvez when I am in Galveston and as such enjoy the city a great deal.  When I had to book at the Candlewood Suites I was dissapointed because of the location, however when I arrived I was pleasantly surprised with all the other amenities.
+   upon check-in I was greeted by friendly staff who promptly got me through the check-in process and to my room.  now I have stayed in CWS hotels in the past and was not prepared for the renovations that this location had: hardwood floors, flat screen TV, stainless steel appliances and a great assortment of kitchen utensils and diningware.  The room was also immaculate (cleaner than a lot of higher end hotels) which made relaxing after a long flight.
+   I do reccomend that if you stay here you should have a rental car, as I mentioned earlier, the location is not in any way near the beach so if you plan on partaking in the usual tourist fare you would be better off driving there.  On the flip side, the hotel does find itself next to a large strip mall complete with a Target store which would be great for picking up any toiletries, beach stuff etc.  I am sure their prices...When I had to re-book my hotel at the last minute due to an administrative error, I was forced to downgrade my choices because of the change in rates.  I normally stay at the hotel Galvez when I am in Galveston and as such enjoy the city a great deal.  When I had to book at the Candlewood Suites I was dissapointed because of the location, however when I arrived I was pleasantly surprised with all the other amenities.   upon check-in I was greeted by friendly staff who promptly got me through the check-in process and to my room.  now I have stayed in CWS hotels in the past and was not prepared for the renovations that this location had: hardwood floors, flat screen TV, stainless steel appliances and a great assortment of kitchen utensils and diningware.  The room was also immaculate (cleaner than a lot of higher end hotels) which made relaxing after a long flight.   I do reccomend that if you stay here you should have a rental car, as I mentioned earlier, the location is not in any way near the beach so if you plan on partaking in the usual tourist fare you would be better off driving there.  On the flip side, the hotel does find itself next to a large strip mall complete with a Target store which would be great for picking up any toiletries, beach stuff etc.  I am sure their prices would be a LOT lower than the usual 'WINGS' stores nearer to the beach.   All in all I was pleasantly surprised, and as long as you don't expect to walk to the beach you will be too..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1139704-r21863557-Candlewood_Suites_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>21863557</t>
+  </si>
+  <si>
+    <t>11/14/2008</t>
+  </si>
+  <si>
+    <t>General Manager has a heart of gold..</t>
+  </si>
+  <si>
+    <t>I was there after my home got wiped out by Hurricane Ike, the GM was so helpful that he personally helped me carry my bags up to my room three floors up. He also helped me contact my insurance company and took care of all the billing and paper work. As a single mother who lost everything in the storm, its nice to know there are still people in the world that do more than just look out for themselves. Neal was great in helping my family out and runs a wonderful hotel to stay at. With the gas BBQ grill, DVD library free guest laundry (best part about it is that its in the gym so you can get a quick workout in while you wash your clothes.) Also i found out the Candlewood is the only hotel in Galveston that has a anti-mosquito system which really helped with the bugs after the storm. Its great for the BBQ time too. Great hotel would recommend it to everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>I was there after my home got wiped out by Hurricane Ike, the GM was so helpful that he personally helped me carry my bags up to my room three floors up. He also helped me contact my insurance company and took care of all the billing and paper work. As a single mother who lost everything in the storm, its nice to know there are still people in the world that do more than just look out for themselves. Neal was great in helping my family out and runs a wonderful hotel to stay at. With the gas BBQ grill, DVD library free guest laundry (best part about it is that its in the gym so you can get a quick workout in while you wash your clothes.) Also i found out the Candlewood is the only hotel in Galveston that has a anti-mosquito system which really helped with the bugs after the storm. Its great for the BBQ time too. Great hotel would recommend it to everyone.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2530,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2562,6135 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>129</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>151</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>143</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>191</v>
+      </c>
+      <c r="X21" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>185</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s">
+        <v>208</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>209</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s">
+        <v>214</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>215</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>221</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>223</v>
+      </c>
+      <c r="J27" t="s">
+        <v>224</v>
+      </c>
+      <c r="K27" t="s">
+        <v>225</v>
+      </c>
+      <c r="L27" t="s">
+        <v>226</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>227</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>229</v>
+      </c>
+      <c r="J28" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" t="s">
+        <v>232</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>227</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" t="s">
+        <v>236</v>
+      </c>
+      <c r="L29" t="s">
+        <v>237</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>238</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>239</v>
+      </c>
+      <c r="X29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>243</v>
+      </c>
+      <c r="J30" t="s">
+        <v>244</v>
+      </c>
+      <c r="K30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L30" t="s">
+        <v>246</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>238</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J31" t="s">
+        <v>249</v>
+      </c>
+      <c r="K31" t="s">
+        <v>250</v>
+      </c>
+      <c r="L31" t="s">
+        <v>251</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>252</v>
+      </c>
+      <c r="O31" t="s">
+        <v>151</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>258</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>260</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>261</v>
+      </c>
+      <c r="J33" t="s">
+        <v>262</v>
+      </c>
+      <c r="K33" t="s">
+        <v>263</v>
+      </c>
+      <c r="L33" t="s">
+        <v>264</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>267</v>
+      </c>
+      <c r="J34" t="s">
+        <v>268</v>
+      </c>
+      <c r="K34" t="s">
+        <v>269</v>
+      </c>
+      <c r="L34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>258</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>271</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>272</v>
+      </c>
+      <c r="J35" t="s">
+        <v>273</v>
+      </c>
+      <c r="K35" t="s">
+        <v>274</v>
+      </c>
+      <c r="L35" t="s">
+        <v>275</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>276</v>
+      </c>
+      <c r="X35" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" t="s">
+        <v>281</v>
+      </c>
+      <c r="K36" t="s">
+        <v>282</v>
+      </c>
+      <c r="L36" t="s">
+        <v>283</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>284</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>286</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>287</v>
+      </c>
+      <c r="J37" t="s">
+        <v>281</v>
+      </c>
+      <c r="K37" t="s">
+        <v>288</v>
+      </c>
+      <c r="L37" t="s">
+        <v>289</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>284</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>290</v>
+      </c>
+      <c r="X37" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" t="s">
+        <v>297</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>298</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>299</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J39" t="s">
+        <v>301</v>
+      </c>
+      <c r="K39" t="s">
+        <v>302</v>
+      </c>
+      <c r="L39" t="s">
+        <v>303</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>298</v>
+      </c>
+      <c r="O39" t="s">
+        <v>137</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>304</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>305</v>
+      </c>
+      <c r="J40" t="s">
+        <v>306</v>
+      </c>
+      <c r="K40" t="s">
+        <v>307</v>
+      </c>
+      <c r="L40" t="s">
+        <v>308</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>298</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>309</v>
+      </c>
+      <c r="X40" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>312</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>313</v>
+      </c>
+      <c r="J41" t="s">
+        <v>314</v>
+      </c>
+      <c r="K41" t="s">
+        <v>315</v>
+      </c>
+      <c r="L41" t="s">
+        <v>316</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>298</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>318</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>319</v>
+      </c>
+      <c r="J42" t="s">
+        <v>320</v>
+      </c>
+      <c r="K42" t="s">
+        <v>321</v>
+      </c>
+      <c r="L42" t="s">
+        <v>322</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>323</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>324</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>325</v>
+      </c>
+      <c r="J43" t="s">
+        <v>326</v>
+      </c>
+      <c r="K43" t="s">
+        <v>327</v>
+      </c>
+      <c r="L43" t="s">
+        <v>328</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>329</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>331</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>332</v>
+      </c>
+      <c r="J44" t="s">
+        <v>333</v>
+      </c>
+      <c r="K44" t="s">
+        <v>127</v>
+      </c>
+      <c r="L44" t="s">
+        <v>334</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>335</v>
+      </c>
+      <c r="O44" t="s">
+        <v>151</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>336</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>337</v>
+      </c>
+      <c r="J45" t="s">
+        <v>338</v>
+      </c>
+      <c r="K45" t="s">
+        <v>339</v>
+      </c>
+      <c r="L45" t="s">
+        <v>340</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>335</v>
+      </c>
+      <c r="O45" t="s">
+        <v>151</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>341</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>342</v>
+      </c>
+      <c r="J46" t="s">
+        <v>343</v>
+      </c>
+      <c r="K46" t="s">
+        <v>344</v>
+      </c>
+      <c r="L46" t="s">
+        <v>345</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>335</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>346</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>347</v>
+      </c>
+      <c r="J47" t="s">
+        <v>348</v>
+      </c>
+      <c r="K47" t="s">
+        <v>349</v>
+      </c>
+      <c r="L47" t="s">
+        <v>350</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>351</v>
+      </c>
+      <c r="O47" t="s">
+        <v>137</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>352</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>353</v>
+      </c>
+      <c r="J48" t="s">
+        <v>354</v>
+      </c>
+      <c r="K48" t="s">
+        <v>355</v>
+      </c>
+      <c r="L48" t="s">
+        <v>356</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>357</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>359</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>360</v>
+      </c>
+      <c r="J49" t="s">
+        <v>361</v>
+      </c>
+      <c r="K49" t="s">
+        <v>362</v>
+      </c>
+      <c r="L49" t="s">
+        <v>363</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>364</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>365</v>
+      </c>
+      <c r="J50" t="s">
+        <v>366</v>
+      </c>
+      <c r="K50" t="s">
+        <v>367</v>
+      </c>
+      <c r="L50" t="s">
+        <v>368</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>369</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>371</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>372</v>
+      </c>
+      <c r="J51" t="s">
+        <v>373</v>
+      </c>
+      <c r="K51" t="s">
+        <v>374</v>
+      </c>
+      <c r="L51" t="s">
+        <v>375</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>369</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>376</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>377</v>
+      </c>
+      <c r="J52" t="s">
+        <v>378</v>
+      </c>
+      <c r="K52" t="s">
+        <v>379</v>
+      </c>
+      <c r="L52" t="s">
+        <v>380</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>381</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>382</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>383</v>
+      </c>
+      <c r="J53" t="s">
+        <v>384</v>
+      </c>
+      <c r="K53" t="s">
+        <v>385</v>
+      </c>
+      <c r="L53" t="s">
+        <v>386</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>387</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>388</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>389</v>
+      </c>
+      <c r="J54" t="s">
+        <v>390</v>
+      </c>
+      <c r="K54" t="s">
+        <v>391</v>
+      </c>
+      <c r="L54" t="s">
+        <v>392</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>393</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>394</v>
+      </c>
+      <c r="X54" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>397</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>398</v>
+      </c>
+      <c r="J55" t="s">
+        <v>399</v>
+      </c>
+      <c r="K55" t="s">
+        <v>400</v>
+      </c>
+      <c r="L55" t="s">
+        <v>401</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>393</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>403</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>404</v>
+      </c>
+      <c r="J56" t="s">
+        <v>405</v>
+      </c>
+      <c r="K56" t="s">
+        <v>406</v>
+      </c>
+      <c r="L56" t="s">
+        <v>407</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>393</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>408</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>409</v>
+      </c>
+      <c r="J57" t="s">
+        <v>410</v>
+      </c>
+      <c r="K57" t="s">
+        <v>411</v>
+      </c>
+      <c r="L57" t="s">
+        <v>412</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>413</v>
+      </c>
+      <c r="O57" t="s">
+        <v>151</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>414</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>415</v>
+      </c>
+      <c r="J58" t="s">
+        <v>416</v>
+      </c>
+      <c r="K58" t="s">
+        <v>417</v>
+      </c>
+      <c r="L58" t="s">
+        <v>418</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>419</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>421</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>422</v>
+      </c>
+      <c r="J59" t="s">
+        <v>423</v>
+      </c>
+      <c r="K59" t="s">
+        <v>424</v>
+      </c>
+      <c r="L59" t="s">
+        <v>425</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>426</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>427</v>
+      </c>
+      <c r="J60" t="s">
+        <v>428</v>
+      </c>
+      <c r="K60" t="s">
+        <v>429</v>
+      </c>
+      <c r="L60" t="s">
+        <v>430</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>431</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>432</v>
+      </c>
+      <c r="J61" t="s">
+        <v>433</v>
+      </c>
+      <c r="K61" t="s">
+        <v>434</v>
+      </c>
+      <c r="L61" t="s">
+        <v>435</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>436</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>437</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>438</v>
+      </c>
+      <c r="J62" t="s">
+        <v>439</v>
+      </c>
+      <c r="K62" t="s">
+        <v>440</v>
+      </c>
+      <c r="L62" t="s">
+        <v>441</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>442</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>444</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>445</v>
+      </c>
+      <c r="J63" t="s">
+        <v>446</v>
+      </c>
+      <c r="K63" t="s">
+        <v>447</v>
+      </c>
+      <c r="L63" t="s">
+        <v>448</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>442</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>451</v>
+      </c>
+      <c r="J64" t="s">
+        <v>452</v>
+      </c>
+      <c r="K64" t="s">
+        <v>453</v>
+      </c>
+      <c r="L64" t="s">
+        <v>454</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>455</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>456</v>
+      </c>
+      <c r="X64" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>459</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>460</v>
+      </c>
+      <c r="J65" t="s">
+        <v>461</v>
+      </c>
+      <c r="K65" t="s">
+        <v>202</v>
+      </c>
+      <c r="L65" t="s">
+        <v>462</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>463</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>464</v>
+      </c>
+      <c r="J66" t="s">
+        <v>465</v>
+      </c>
+      <c r="K66" t="s">
+        <v>466</v>
+      </c>
+      <c r="L66" t="s">
+        <v>467</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>468</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>469</v>
+      </c>
+      <c r="J67" t="s">
+        <v>470</v>
+      </c>
+      <c r="K67" t="s">
+        <v>471</v>
+      </c>
+      <c r="L67" t="s">
+        <v>472</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>473</v>
+      </c>
+      <c r="O67" t="s">
+        <v>129</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>474</v>
+      </c>
+      <c r="X67" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>477</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>478</v>
+      </c>
+      <c r="J68" t="s">
+        <v>479</v>
+      </c>
+      <c r="K68" t="s">
+        <v>480</v>
+      </c>
+      <c r="L68" t="s">
+        <v>481</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>482</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>484</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>485</v>
+      </c>
+      <c r="J69" t="s">
+        <v>486</v>
+      </c>
+      <c r="K69" t="s">
+        <v>487</v>
+      </c>
+      <c r="L69" t="s">
+        <v>488</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>489</v>
+      </c>
+      <c r="O69" t="s">
+        <v>151</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>491</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>492</v>
+      </c>
+      <c r="J70" t="s">
+        <v>493</v>
+      </c>
+      <c r="K70" t="s">
+        <v>494</v>
+      </c>
+      <c r="L70" t="s">
+        <v>495</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>489</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>497</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>498</v>
+      </c>
+      <c r="J71" t="s">
+        <v>499</v>
+      </c>
+      <c r="K71" t="s">
+        <v>500</v>
+      </c>
+      <c r="L71" t="s">
+        <v>501</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>502</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>503</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>504</v>
+      </c>
+      <c r="J72" t="s">
+        <v>499</v>
+      </c>
+      <c r="K72" t="s">
+        <v>505</v>
+      </c>
+      <c r="L72" t="s">
+        <v>506</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>507</v>
+      </c>
+      <c r="O72" t="s">
+        <v>151</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>508</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>509</v>
+      </c>
+      <c r="J73" t="s">
+        <v>510</v>
+      </c>
+      <c r="K73" t="s">
+        <v>511</v>
+      </c>
+      <c r="L73" t="s">
+        <v>512</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>502</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>513</v>
+      </c>
+      <c r="X73" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>516</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>517</v>
+      </c>
+      <c r="J74" t="s">
+        <v>518</v>
+      </c>
+      <c r="K74" t="s">
+        <v>519</v>
+      </c>
+      <c r="L74" t="s">
+        <v>520</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>521</v>
+      </c>
+      <c r="O74" t="s">
+        <v>129</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>523</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>524</v>
+      </c>
+      <c r="J75" t="s">
+        <v>525</v>
+      </c>
+      <c r="K75" t="s">
+        <v>526</v>
+      </c>
+      <c r="L75" t="s">
+        <v>527</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>521</v>
+      </c>
+      <c r="O75" t="s">
+        <v>137</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>529</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>530</v>
+      </c>
+      <c r="J76" t="s">
+        <v>531</v>
+      </c>
+      <c r="K76" t="s">
+        <v>532</v>
+      </c>
+      <c r="L76" t="s">
+        <v>533</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>534</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>535</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>536</v>
+      </c>
+      <c r="J77" t="s">
+        <v>537</v>
+      </c>
+      <c r="K77" t="s">
+        <v>538</v>
+      </c>
+      <c r="L77" t="s">
+        <v>539</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>540</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>542</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>543</v>
+      </c>
+      <c r="J78" t="s">
+        <v>544</v>
+      </c>
+      <c r="K78" t="s">
+        <v>545</v>
+      </c>
+      <c r="L78" t="s">
+        <v>546</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>547</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>549</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>550</v>
+      </c>
+      <c r="J79" t="s">
+        <v>551</v>
+      </c>
+      <c r="K79" t="s">
+        <v>552</v>
+      </c>
+      <c r="L79" t="s">
+        <v>553</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>547</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>554</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>555</v>
+      </c>
+      <c r="J80" t="s">
+        <v>556</v>
+      </c>
+      <c r="K80" t="s">
+        <v>557</v>
+      </c>
+      <c r="L80" t="s">
+        <v>558</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>560</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>561</v>
+      </c>
+      <c r="J81" t="s">
+        <v>562</v>
+      </c>
+      <c r="K81" t="s">
+        <v>563</v>
+      </c>
+      <c r="L81" t="s">
+        <v>564</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>565</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>566</v>
+      </c>
+      <c r="X81" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>569</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>570</v>
+      </c>
+      <c r="J82" t="s">
+        <v>562</v>
+      </c>
+      <c r="K82" t="s">
+        <v>571</v>
+      </c>
+      <c r="L82" t="s">
+        <v>572</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>565</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>573</v>
+      </c>
+      <c r="X82" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>576</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>577</v>
+      </c>
+      <c r="J83" t="s">
+        <v>578</v>
+      </c>
+      <c r="K83" t="s">
+        <v>579</v>
+      </c>
+      <c r="L83" t="s">
+        <v>580</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>581</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>583</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>584</v>
+      </c>
+      <c r="J84" t="s">
+        <v>585</v>
+      </c>
+      <c r="K84" t="s">
+        <v>586</v>
+      </c>
+      <c r="L84" t="s">
+        <v>587</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>581</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>588</v>
+      </c>
+      <c r="X84" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>591</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>592</v>
+      </c>
+      <c r="J85" t="s">
+        <v>593</v>
+      </c>
+      <c r="K85" t="s">
+        <v>594</v>
+      </c>
+      <c r="L85" t="s">
+        <v>595</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>596</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>597</v>
+      </c>
+      <c r="J86" t="s">
+        <v>598</v>
+      </c>
+      <c r="K86" t="s">
+        <v>599</v>
+      </c>
+      <c r="L86" t="s">
+        <v>600</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>601</v>
+      </c>
+      <c r="O86" t="s">
+        <v>129</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>602</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>603</v>
+      </c>
+      <c r="J87" t="s">
+        <v>604</v>
+      </c>
+      <c r="K87" t="s">
+        <v>605</v>
+      </c>
+      <c r="L87" t="s">
+        <v>606</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>607</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>608</v>
+      </c>
+      <c r="X87" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>611</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>612</v>
+      </c>
+      <c r="J88" t="s">
+        <v>613</v>
+      </c>
+      <c r="K88" t="s">
+        <v>614</v>
+      </c>
+      <c r="L88" t="s">
+        <v>615</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>607</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>616</v>
+      </c>
+      <c r="X88" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>619</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>620</v>
+      </c>
+      <c r="J89" t="s">
+        <v>621</v>
+      </c>
+      <c r="K89" t="s">
+        <v>622</v>
+      </c>
+      <c r="L89" t="s">
+        <v>623</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>607</v>
+      </c>
+      <c r="O89" t="s">
+        <v>137</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>624</v>
+      </c>
+      <c r="X89" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>627</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>628</v>
+      </c>
+      <c r="J90" t="s">
+        <v>629</v>
+      </c>
+      <c r="K90" t="s">
+        <v>630</v>
+      </c>
+      <c r="L90" t="s">
+        <v>631</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>632</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>633</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>634</v>
+      </c>
+      <c r="J91" t="s">
+        <v>635</v>
+      </c>
+      <c r="K91" t="s">
+        <v>636</v>
+      </c>
+      <c r="L91" t="s">
+        <v>637</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>632</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>638</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>639</v>
+      </c>
+      <c r="J92" t="s">
+        <v>640</v>
+      </c>
+      <c r="K92" t="s">
+        <v>641</v>
+      </c>
+      <c r="L92" t="s">
+        <v>642</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s">
+        <v>643</v>
+      </c>
+      <c r="O92" t="s">
+        <v>137</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>644</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>645</v>
+      </c>
+      <c r="J93" t="s">
+        <v>646</v>
+      </c>
+      <c r="K93" t="s">
+        <v>647</v>
+      </c>
+      <c r="L93" t="s">
+        <v>648</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>643</v>
+      </c>
+      <c r="O93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>650</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>651</v>
+      </c>
+      <c r="J94" t="s">
+        <v>652</v>
+      </c>
+      <c r="K94" t="s">
+        <v>653</v>
+      </c>
+      <c r="L94" t="s">
+        <v>654</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>655</v>
+      </c>
+      <c r="O94" t="s">
+        <v>151</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>656</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>657</v>
+      </c>
+      <c r="J95" t="s">
+        <v>658</v>
+      </c>
+      <c r="K95" t="s">
+        <v>659</v>
+      </c>
+      <c r="L95" t="s">
+        <v>660</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>661</v>
+      </c>
+      <c r="O95" t="s">
+        <v>60</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>663</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>664</v>
+      </c>
+      <c r="J96" t="s">
+        <v>665</v>
+      </c>
+      <c r="K96" t="s">
+        <v>666</v>
+      </c>
+      <c r="L96" t="s">
+        <v>667</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>668</v>
+      </c>
+      <c r="O96" t="s">
+        <v>151</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>57754</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>670</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>671</v>
+      </c>
+      <c r="J97" t="s">
+        <v>672</v>
+      </c>
+      <c r="K97" t="s">
+        <v>673</v>
+      </c>
+      <c r="L97" t="s">
+        <v>674</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>675</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
